--- a/bomberman_metrics.xlsx
+++ b/bomberman_metrics.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerStats" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3570" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4051" uniqueCount="117">
   <si>
     <t>jpod</t>
   </si>
@@ -355,6 +355,18 @@
   <si>
     <t>had curse</t>
   </si>
+  <si>
+    <t>cursed, could be reversed</t>
+  </si>
+  <si>
+    <t>awesome win!</t>
+  </si>
+  <si>
+    <t>everyone with throw</t>
+  </si>
+  <si>
+    <t>speed curse</t>
+  </si>
 </sst>
 </file>
 
@@ -559,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -617,21 +629,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -648,6 +645,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -949,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N589"/>
+  <dimension ref="A1:O670"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F589" sqref="F589"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G582" sqref="G582"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17902,7 +17917,7 @@
       <c r="A410" s="5">
         <v>4</v>
       </c>
-      <c r="B410" s="37" t="s">
+      <c r="B410" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C410" s="5">
@@ -17923,13 +17938,13 @@
       <c r="H410" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I410" s="37" t="s">
+      <c r="I410" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="J410" s="38">
+      <c r="J410" s="33">
         <v>9.8379629629629642E-4</v>
       </c>
-      <c r="K410" s="37">
+      <c r="K410" s="32">
         <v>6</v>
       </c>
       <c r="L410" s="1" t="s">
@@ -17944,7 +17959,7 @@
       <c r="A411" s="5">
         <v>4</v>
       </c>
-      <c r="B411" s="37" t="s">
+      <c r="B411" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C411" s="5">
@@ -17964,7 +17979,7 @@
       </c>
       <c r="H411" s="3"/>
       <c r="I411" s="1"/>
-      <c r="J411" s="38">
+      <c r="J411" s="33">
         <v>6.134259259259259E-4</v>
       </c>
       <c r="K411" s="1"/>
@@ -17980,7 +17995,7 @@
       <c r="A412" s="5">
         <v>4</v>
       </c>
-      <c r="B412" s="37" t="s">
+      <c r="B412" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C412" s="5">
@@ -18004,7 +18019,7 @@
       <c r="I412" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J412" s="38">
+      <c r="J412" s="33">
         <v>1.4467592592592594E-3</v>
       </c>
       <c r="K412" s="1">
@@ -18022,7 +18037,7 @@
       <c r="A413" s="5">
         <v>4</v>
       </c>
-      <c r="B413" s="37" t="s">
+      <c r="B413" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C413" s="5">
@@ -18046,7 +18061,7 @@
       <c r="I413" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J413" s="38">
+      <c r="J413" s="33">
         <v>6.134259259259259E-4</v>
       </c>
       <c r="K413" s="1"/>
@@ -18062,7 +18077,7 @@
       <c r="A414" s="5">
         <v>4</v>
       </c>
-      <c r="B414" s="37" t="s">
+      <c r="B414" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C414" s="5">
@@ -18086,7 +18101,7 @@
       <c r="I414" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J414" s="38">
+      <c r="J414" s="33">
         <v>1.1342592592592591E-3</v>
       </c>
       <c r="K414" s="1">
@@ -18104,7 +18119,7 @@
       <c r="A415" s="5">
         <v>4</v>
       </c>
-      <c r="B415" s="37" t="s">
+      <c r="B415" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C415" s="5">
@@ -18128,7 +18143,7 @@
       <c r="I415" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J415" s="38">
+      <c r="J415" s="33">
         <v>1.0648148148148147E-3</v>
       </c>
       <c r="K415" s="1">
@@ -18146,7 +18161,7 @@
       <c r="A416" s="5">
         <v>4</v>
       </c>
-      <c r="B416" s="37" t="s">
+      <c r="B416" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C416" s="5">
@@ -18170,7 +18185,7 @@
       <c r="I416" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J416" s="38">
+      <c r="J416" s="33">
         <v>1.7013888888888892E-3</v>
       </c>
       <c r="K416" s="1">
@@ -18188,7 +18203,7 @@
       <c r="A417" s="5">
         <v>4</v>
       </c>
-      <c r="B417" s="37" t="s">
+      <c r="B417" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C417" s="5">
@@ -18212,7 +18227,7 @@
       <c r="I417" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J417" s="38">
+      <c r="J417" s="33">
         <v>8.2175925925925917E-4</v>
       </c>
       <c r="K417" s="1">
@@ -18230,7 +18245,7 @@
       <c r="A418" s="5">
         <v>4</v>
       </c>
-      <c r="B418" s="37" t="s">
+      <c r="B418" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C418" s="5">
@@ -18254,7 +18269,7 @@
       <c r="I418" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J418" s="38">
+      <c r="J418" s="33">
         <v>1.4583333333333334E-3</v>
       </c>
       <c r="K418" s="1">
@@ -18272,7 +18287,7 @@
       <c r="A419" s="5">
         <v>4</v>
       </c>
-      <c r="B419" s="37" t="s">
+      <c r="B419" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C419" s="5">
@@ -18296,7 +18311,7 @@
       <c r="I419" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J419" s="38">
+      <c r="J419" s="33">
         <v>6.018518518518519E-4</v>
       </c>
       <c r="K419" s="1">
@@ -18314,7 +18329,7 @@
       <c r="A420" s="5">
         <v>4</v>
       </c>
-      <c r="B420" s="37" t="s">
+      <c r="B420" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C420" s="5">
@@ -18338,7 +18353,7 @@
       <c r="I420" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J420" s="38">
+      <c r="J420" s="33">
         <v>9.2592592592592588E-5</v>
       </c>
       <c r="K420" s="1">
@@ -18356,7 +18371,7 @@
       <c r="A421" s="5">
         <v>4</v>
       </c>
-      <c r="B421" s="37" t="s">
+      <c r="B421" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C421" s="5">
@@ -18380,7 +18395,7 @@
       <c r="I421" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J421" s="38">
+      <c r="J421" s="33">
         <v>1.1921296296296296E-3</v>
       </c>
       <c r="K421" s="1">
@@ -18400,7 +18415,7 @@
       <c r="A422" s="5">
         <v>4</v>
       </c>
-      <c r="B422" s="37" t="s">
+      <c r="B422" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C422" s="5">
@@ -18424,7 +18439,7 @@
       <c r="I422" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J422" s="38">
+      <c r="J422" s="33">
         <v>1.0763888888888889E-3</v>
       </c>
       <c r="K422" s="1">
@@ -18442,7 +18457,7 @@
       <c r="A423" s="5">
         <v>4</v>
       </c>
-      <c r="B423" s="37" t="s">
+      <c r="B423" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C423" s="5">
@@ -18466,7 +18481,7 @@
       <c r="I423" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J423" s="38">
+      <c r="J423" s="33">
         <v>1.2731481481481483E-3</v>
       </c>
       <c r="K423" s="1">
@@ -18484,7 +18499,7 @@
       <c r="A424" s="5">
         <v>4</v>
       </c>
-      <c r="B424" s="37" t="s">
+      <c r="B424" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C424" s="5">
@@ -18508,7 +18523,7 @@
       <c r="I424" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J424" s="38">
+      <c r="J424" s="33">
         <v>1.0532407407407407E-3</v>
       </c>
       <c r="K424" s="1">
@@ -18526,7 +18541,7 @@
       <c r="A425" s="5">
         <v>4</v>
       </c>
-      <c r="B425" s="37" t="s">
+      <c r="B425" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C425" s="5">
@@ -18550,7 +18565,7 @@
       <c r="I425" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J425" s="38">
+      <c r="J425" s="33">
         <v>1.1574074074074073E-4</v>
       </c>
       <c r="K425" s="1">
@@ -18568,7 +18583,7 @@
       <c r="A426" s="5">
         <v>4</v>
       </c>
-      <c r="B426" s="37" t="s">
+      <c r="B426" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C426" s="5">
@@ -18592,7 +18607,7 @@
       <c r="I426" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J426" s="38">
+      <c r="J426" s="33">
         <v>1.0532407407407407E-3</v>
       </c>
       <c r="K426" s="1">
@@ -18610,7 +18625,7 @@
       <c r="A427" s="5">
         <v>4</v>
       </c>
-      <c r="B427" s="37" t="s">
+      <c r="B427" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C427" s="5">
@@ -18630,7 +18645,7 @@
       </c>
       <c r="H427" s="3"/>
       <c r="I427" s="1"/>
-      <c r="J427" s="38">
+      <c r="J427" s="33">
         <v>9.2592592592592588E-5</v>
       </c>
       <c r="K427" s="1"/>
@@ -18646,7 +18661,7 @@
       <c r="A428" s="5">
         <v>4</v>
       </c>
-      <c r="B428" s="37" t="s">
+      <c r="B428" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C428" s="5">
@@ -18670,7 +18685,7 @@
       <c r="I428" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J428" s="38">
+      <c r="J428" s="33">
         <v>1.3078703703703705E-3</v>
       </c>
       <c r="K428" s="1">
@@ -18688,7 +18703,7 @@
       <c r="A429" s="5">
         <v>4</v>
       </c>
-      <c r="B429" s="37" t="s">
+      <c r="B429" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C429" s="5">
@@ -18712,7 +18727,7 @@
       <c r="I429" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J429" s="38">
+      <c r="J429" s="33">
         <v>1.1805555555555556E-3</v>
       </c>
       <c r="K429" s="1">
@@ -18730,7 +18745,7 @@
       <c r="A430" s="5">
         <v>4</v>
       </c>
-      <c r="B430" s="37" t="s">
+      <c r="B430" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C430" s="5">
@@ -18754,7 +18769,7 @@
       <c r="I430" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J430" s="38">
+      <c r="J430" s="33">
         <v>9.0277777777777784E-4</v>
       </c>
       <c r="K430" s="1">
@@ -18772,7 +18787,7 @@
       <c r="A431" s="5">
         <v>4</v>
       </c>
-      <c r="B431" s="37" t="s">
+      <c r="B431" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C431" s="5">
@@ -18796,7 +18811,7 @@
       <c r="I431" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J431" s="38">
+      <c r="J431" s="33">
         <v>3.5879629629629635E-4</v>
       </c>
       <c r="K431" s="1">
@@ -18814,7 +18829,7 @@
       <c r="A432" s="5">
         <v>4</v>
       </c>
-      <c r="B432" s="37" t="s">
+      <c r="B432" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C432" s="5">
@@ -18838,7 +18853,7 @@
       <c r="I432" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J432" s="38">
+      <c r="J432" s="33">
         <v>1.3773148148148147E-3</v>
       </c>
       <c r="K432" s="1">
@@ -18856,7 +18871,7 @@
       <c r="A433" s="5">
         <v>4</v>
       </c>
-      <c r="B433" s="37" t="s">
+      <c r="B433" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C433" s="5">
@@ -18880,7 +18895,7 @@
       <c r="I433" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J433" s="38">
+      <c r="J433" s="33">
         <v>1.1574074074074073E-3</v>
       </c>
       <c r="K433" s="1">
@@ -18898,7 +18913,7 @@
       <c r="A434" s="5">
         <v>4</v>
       </c>
-      <c r="B434" s="37" t="s">
+      <c r="B434" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C434" s="5">
@@ -18922,7 +18937,7 @@
       <c r="I434" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J434" s="38">
+      <c r="J434" s="33">
         <v>6.5972222222222213E-4</v>
       </c>
       <c r="K434" s="1">
@@ -18940,7 +18955,7 @@
       <c r="A435" s="5">
         <v>4</v>
       </c>
-      <c r="B435" s="37" t="s">
+      <c r="B435" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C435" s="5">
@@ -18964,7 +18979,7 @@
       <c r="I435" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J435" s="38">
+      <c r="J435" s="33">
         <v>1.0532407407407407E-3</v>
       </c>
       <c r="K435" s="1">
@@ -18982,7 +18997,7 @@
       <c r="A436" s="5">
         <v>4</v>
       </c>
-      <c r="B436" s="37" t="s">
+      <c r="B436" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C436" s="5">
@@ -19002,7 +19017,7 @@
       </c>
       <c r="H436" s="3"/>
       <c r="I436" s="1"/>
-      <c r="J436" s="38">
+      <c r="J436" s="33">
         <v>3.5879629629629635E-4</v>
       </c>
       <c r="K436" s="1"/>
@@ -19018,7 +19033,7 @@
       <c r="A437" s="5">
         <v>4</v>
       </c>
-      <c r="B437" s="37" t="s">
+      <c r="B437" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C437" s="5">
@@ -19042,7 +19057,7 @@
       <c r="I437" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J437" s="38">
+      <c r="J437" s="33">
         <v>1.4583333333333334E-3</v>
       </c>
       <c r="K437" s="1">
@@ -19060,7 +19075,7 @@
       <c r="A438" s="5">
         <v>4</v>
       </c>
-      <c r="B438" s="37" t="s">
+      <c r="B438" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C438" s="5">
@@ -19084,7 +19099,7 @@
       <c r="I438" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J438" s="38">
+      <c r="J438" s="33">
         <v>1.3078703703703705E-3</v>
       </c>
       <c r="K438" s="1">
@@ -19102,7 +19117,7 @@
       <c r="A439" s="5">
         <v>4</v>
       </c>
-      <c r="B439" s="37" t="s">
+      <c r="B439" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C439" s="5">
@@ -19126,7 +19141,7 @@
       <c r="I439" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J439" s="38">
+      <c r="J439" s="33">
         <v>1.2384259259259258E-3</v>
       </c>
       <c r="K439" s="1">
@@ -19144,7 +19159,7 @@
       <c r="A440" s="5">
         <v>4</v>
       </c>
-      <c r="B440" s="37" t="s">
+      <c r="B440" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C440" s="5">
@@ -19168,7 +19183,7 @@
       <c r="I440" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J440" s="38">
+      <c r="J440" s="33">
         <v>1.2384259259259258E-3</v>
       </c>
       <c r="K440" s="1">
@@ -19186,7 +19201,7 @@
       <c r="A441" s="5">
         <v>4</v>
       </c>
-      <c r="B441" s="37" t="s">
+      <c r="B441" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C441" s="5">
@@ -19210,7 +19225,7 @@
       <c r="I441" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J441" s="38">
+      <c r="J441" s="33">
         <v>4.6296296296296294E-5</v>
       </c>
       <c r="K441" s="1">
@@ -19228,7 +19243,7 @@
       <c r="A442" s="5">
         <v>4</v>
       </c>
-      <c r="B442" s="37" t="s">
+      <c r="B442" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C442" s="5">
@@ -19252,7 +19267,7 @@
       <c r="I442" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J442" s="38">
+      <c r="J442" s="33">
         <v>1.3078703703703705E-3</v>
       </c>
       <c r="K442" s="1">
@@ -19270,7 +19285,7 @@
       <c r="A443" s="5">
         <v>4</v>
       </c>
-      <c r="B443" s="37" t="s">
+      <c r="B443" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C443" s="5">
@@ -19294,7 +19309,7 @@
       <c r="I443" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J443" s="38">
+      <c r="J443" s="33">
         <v>4.6296296296296294E-5</v>
       </c>
       <c r="K443" s="1">
@@ -19312,7 +19327,7 @@
       <c r="A444" s="5">
         <v>4</v>
       </c>
-      <c r="B444" s="37" t="s">
+      <c r="B444" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C444" s="5">
@@ -19336,7 +19351,7 @@
       <c r="I444" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J444" s="38">
+      <c r="J444" s="33">
         <v>1.0416666666666667E-3</v>
       </c>
       <c r="K444" s="1">
@@ -19354,7 +19369,7 @@
       <c r="A445" s="5">
         <v>4</v>
       </c>
-      <c r="B445" s="37" t="s">
+      <c r="B445" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C445" s="5">
@@ -19378,7 +19393,7 @@
       <c r="I445" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J445" s="38">
+      <c r="J445" s="33">
         <v>3.5879629629629635E-4</v>
       </c>
       <c r="K445" s="1">
@@ -19398,7 +19413,7 @@
       <c r="A446" s="5">
         <v>4</v>
       </c>
-      <c r="B446" s="37" t="s">
+      <c r="B446" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C446" s="5">
@@ -19422,7 +19437,7 @@
       <c r="I446" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J446" s="38">
+      <c r="J446" s="33">
         <v>9.8379629629629642E-4</v>
       </c>
       <c r="K446" s="1">
@@ -19440,7 +19455,7 @@
       <c r="A447" s="5">
         <v>4</v>
       </c>
-      <c r="B447" s="37" t="s">
+      <c r="B447" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C447" s="5">
@@ -19464,7 +19479,7 @@
       <c r="I447" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J447" s="38">
+      <c r="J447" s="33">
         <v>4.7453703703703704E-4</v>
       </c>
       <c r="K447" s="1">
@@ -19482,7 +19497,7 @@
       <c r="A448" s="5">
         <v>4</v>
       </c>
-      <c r="B448" s="37" t="s">
+      <c r="B448" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C448" s="5">
@@ -19502,7 +19517,7 @@
       </c>
       <c r="H448" s="3"/>
       <c r="I448" s="1"/>
-      <c r="J448" s="38">
+      <c r="J448" s="33">
         <v>3.7037037037037035E-4</v>
       </c>
       <c r="K448" s="1"/>
@@ -19518,7 +19533,7 @@
       <c r="A449" s="5">
         <v>4</v>
       </c>
-      <c r="B449" s="37" t="s">
+      <c r="B449" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C449" s="5">
@@ -19542,7 +19557,7 @@
       <c r="I449" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J449" s="38">
+      <c r="J449" s="33">
         <v>8.6805555555555551E-4</v>
       </c>
       <c r="K449" s="1">
@@ -19560,7 +19575,7 @@
       <c r="A450" s="5">
         <v>4</v>
       </c>
-      <c r="B450" s="37" t="s">
+      <c r="B450" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C450" s="5">
@@ -19584,7 +19599,7 @@
       <c r="I450" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J450" s="38">
+      <c r="J450" s="33">
         <v>4.6296296296296293E-4</v>
       </c>
       <c r="K450" s="1">
@@ -19602,7 +19617,7 @@
       <c r="A451" s="5">
         <v>4</v>
       </c>
-      <c r="B451" s="37" t="s">
+      <c r="B451" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C451" s="5">
@@ -19626,7 +19641,7 @@
       <c r="I451" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J451" s="38">
+      <c r="J451" s="33">
         <v>7.175925925925927E-4</v>
       </c>
       <c r="K451" s="1">
@@ -19644,7 +19659,7 @@
       <c r="A452" s="5">
         <v>4</v>
       </c>
-      <c r="B452" s="37" t="s">
+      <c r="B452" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C452" s="5">
@@ -19668,7 +19683,7 @@
       <c r="I452" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J452" s="38">
+      <c r="J452" s="33">
         <v>1.2384259259259258E-3</v>
       </c>
       <c r="K452" s="1">
@@ -19686,7 +19701,7 @@
       <c r="A453" s="5">
         <v>4</v>
       </c>
-      <c r="B453" s="37" t="s">
+      <c r="B453" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C453" s="5">
@@ -19710,7 +19725,7 @@
       <c r="I453" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J453" s="38">
+      <c r="J453" s="33">
         <v>9.4907407407407408E-4</v>
       </c>
       <c r="K453" s="1">
@@ -19728,7 +19743,7 @@
       <c r="A454" s="5">
         <v>4</v>
       </c>
-      <c r="B454" s="37" t="s">
+      <c r="B454" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C454" s="5">
@@ -19752,7 +19767,7 @@
       <c r="I454" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J454" s="38">
+      <c r="J454" s="33">
         <v>3.7037037037037035E-4</v>
       </c>
       <c r="K454" s="1">
@@ -19770,7 +19785,7 @@
       <c r="A455" s="5">
         <v>4</v>
       </c>
-      <c r="B455" s="37" t="s">
+      <c r="B455" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C455" s="5">
@@ -19794,7 +19809,7 @@
       <c r="I455" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J455" s="38">
+      <c r="J455" s="33">
         <v>5.7870370370370378E-4</v>
       </c>
       <c r="K455" s="1">
@@ -19812,7 +19827,7 @@
       <c r="A456" s="5">
         <v>4</v>
       </c>
-      <c r="B456" s="37" t="s">
+      <c r="B456" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C456" s="5">
@@ -19836,7 +19851,7 @@
       <c r="I456" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J456" s="38">
+      <c r="J456" s="33">
         <v>1.25E-3</v>
       </c>
       <c r="K456" s="1">
@@ -19854,7 +19869,7 @@
       <c r="A457" s="5">
         <v>4</v>
       </c>
-      <c r="B457" s="37" t="s">
+      <c r="B457" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C457" s="5">
@@ -19878,7 +19893,7 @@
       <c r="I457" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J457" s="38">
+      <c r="J457" s="33">
         <v>3.0092592592592595E-4</v>
       </c>
       <c r="K457" s="1">
@@ -19896,7 +19911,7 @@
       <c r="A458" s="5">
         <v>4</v>
       </c>
-      <c r="B458" s="37" t="s">
+      <c r="B458" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C458" s="5">
@@ -19920,7 +19935,7 @@
       <c r="I458" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J458" s="38">
+      <c r="J458" s="33">
         <v>5.7870370370370378E-4</v>
       </c>
       <c r="K458" s="1">
@@ -19938,7 +19953,7 @@
       <c r="A459" s="5">
         <v>4</v>
       </c>
-      <c r="B459" s="37" t="s">
+      <c r="B459" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C459" s="5">
@@ -19962,7 +19977,7 @@
       <c r="I459" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J459" s="38">
+      <c r="J459" s="33">
         <v>1.1342592592592591E-3</v>
       </c>
       <c r="K459" s="1">
@@ -19980,7 +19995,7 @@
       <c r="A460" s="5">
         <v>4</v>
       </c>
-      <c r="B460" s="37" t="s">
+      <c r="B460" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C460" s="5">
@@ -20004,7 +20019,7 @@
       <c r="I460" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J460" s="38">
+      <c r="J460" s="33">
         <v>8.9120370370370362E-4</v>
       </c>
       <c r="K460" s="1">
@@ -20022,7 +20037,7 @@
       <c r="A461" s="5">
         <v>4</v>
       </c>
-      <c r="B461" s="37" t="s">
+      <c r="B461" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C461" s="5">
@@ -20046,7 +20061,7 @@
       <c r="I461" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J461" s="38">
+      <c r="J461" s="33">
         <v>1.3425925925925925E-3</v>
       </c>
       <c r="K461" s="1">
@@ -20064,7 +20079,7 @@
       <c r="A462" s="5">
         <v>4</v>
       </c>
-      <c r="B462" s="37" t="s">
+      <c r="B462" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C462" s="5">
@@ -20088,7 +20103,7 @@
       <c r="I462" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J462" s="38">
+      <c r="J462" s="33">
         <v>5.7870370370370378E-4</v>
       </c>
       <c r="K462" s="1">
@@ -20106,7 +20121,7 @@
       <c r="A463" s="5">
         <v>4</v>
       </c>
-      <c r="B463" s="37" t="s">
+      <c r="B463" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C463" s="5">
@@ -20126,7 +20141,7 @@
       </c>
       <c r="H463" s="3"/>
       <c r="I463" s="1"/>
-      <c r="J463" s="38">
+      <c r="J463" s="33">
         <v>3.0092592592592595E-4</v>
       </c>
       <c r="K463" s="1"/>
@@ -20142,7 +20157,7 @@
       <c r="A464" s="5">
         <v>4</v>
       </c>
-      <c r="B464" s="37" t="s">
+      <c r="B464" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C464" s="5">
@@ -20166,7 +20181,7 @@
       <c r="I464" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J464" s="38">
+      <c r="J464" s="33">
         <v>5.2083333333333333E-4</v>
       </c>
       <c r="K464" s="1">
@@ -20184,7 +20199,7 @@
       <c r="A465" s="5">
         <v>4</v>
       </c>
-      <c r="B465" s="37" t="s">
+      <c r="B465" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C465" s="5">
@@ -20208,7 +20223,7 @@
       <c r="I465" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J465" s="38">
+      <c r="J465" s="33">
         <v>1.3773148148148147E-3</v>
       </c>
       <c r="K465" s="1">
@@ -20226,7 +20241,7 @@
       <c r="A466" s="5">
         <v>4</v>
       </c>
-      <c r="B466" s="37" t="s">
+      <c r="B466" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C466" s="5">
@@ -20250,7 +20265,7 @@
       <c r="I466" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J466" s="38">
+      <c r="J466" s="33">
         <v>1.5972222222222221E-3</v>
       </c>
       <c r="K466" s="1">
@@ -20268,7 +20283,7 @@
       <c r="A467" s="5">
         <v>4</v>
       </c>
-      <c r="B467" s="37" t="s">
+      <c r="B467" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C467" s="5">
@@ -20292,7 +20307,7 @@
       <c r="I467" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J467" s="38">
+      <c r="J467" s="33">
         <v>1.0300925925925926E-3</v>
       </c>
       <c r="K467" s="1">
@@ -20310,7 +20325,7 @@
       <c r="A468" s="5">
         <v>4</v>
       </c>
-      <c r="B468" s="37" t="s">
+      <c r="B468" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C468" s="5">
@@ -20334,7 +20349,7 @@
       <c r="I468" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J468" s="38">
+      <c r="J468" s="33">
         <v>5.7870370370370366E-5</v>
       </c>
       <c r="K468" s="1">
@@ -20352,7 +20367,7 @@
       <c r="A469" s="5">
         <v>4</v>
       </c>
-      <c r="B469" s="37" t="s">
+      <c r="B469" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C469" s="5">
@@ -20376,7 +20391,7 @@
       <c r="I469" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J469" s="38">
+      <c r="J469" s="33">
         <v>5.7870370370370366E-5</v>
       </c>
       <c r="K469" s="1">
@@ -20394,7 +20409,7 @@
       <c r="A470" s="5">
         <v>4</v>
       </c>
-      <c r="B470" s="37" t="s">
+      <c r="B470" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C470" s="5">
@@ -20418,7 +20433,7 @@
       <c r="I470" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J470" s="38">
+      <c r="J470" s="33">
         <v>7.175925925925927E-4</v>
       </c>
       <c r="K470" s="1">
@@ -20436,7 +20451,7 @@
       <c r="A471" s="5">
         <v>4</v>
       </c>
-      <c r="B471" s="37" t="s">
+      <c r="B471" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C471" s="5">
@@ -20460,7 +20475,7 @@
       <c r="I471" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J471" s="38">
+      <c r="J471" s="33">
         <v>1.1342592592592591E-3</v>
       </c>
       <c r="K471" s="1">
@@ -20478,7 +20493,7 @@
       <c r="A472" s="5">
         <v>4</v>
       </c>
-      <c r="B472" s="37" t="s">
+      <c r="B472" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C472" s="5">
@@ -20502,7 +20517,7 @@
       <c r="I472" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J472" s="38">
+      <c r="J472" s="33">
         <v>1.4351851851851854E-3</v>
       </c>
       <c r="K472" s="1">
@@ -20520,7 +20535,7 @@
       <c r="A473" s="5">
         <v>4</v>
       </c>
-      <c r="B473" s="37" t="s">
+      <c r="B473" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C473" s="5">
@@ -20544,7 +20559,7 @@
       <c r="I473" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J473" s="38">
+      <c r="J473" s="33">
         <v>8.564814814814815E-4</v>
       </c>
       <c r="K473" s="1">
@@ -20562,7 +20577,7 @@
       <c r="A474" s="5">
         <v>4</v>
       </c>
-      <c r="B474" s="37" t="s">
+      <c r="B474" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C474" s="5">
@@ -20586,7 +20601,7 @@
       <c r="I474" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J474" s="38">
+      <c r="J474" s="33">
         <v>1.2731481481481483E-3</v>
       </c>
       <c r="K474" s="1">
@@ -20604,7 +20619,7 @@
       <c r="A475" s="5">
         <v>4</v>
       </c>
-      <c r="B475" s="37" t="s">
+      <c r="B475" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C475" s="5">
@@ -20628,7 +20643,7 @@
       <c r="I475" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J475" s="38">
+      <c r="J475" s="33">
         <v>1.0300925925925926E-3</v>
       </c>
       <c r="K475" s="1">
@@ -20646,7 +20661,7 @@
       <c r="A476" s="5">
         <v>4</v>
       </c>
-      <c r="B476" s="37" t="s">
+      <c r="B476" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C476" s="5">
@@ -20670,7 +20685,7 @@
       <c r="I476" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J476" s="38">
+      <c r="J476" s="33">
         <v>1.2152777777777778E-3</v>
       </c>
       <c r="K476" s="1">
@@ -20688,7 +20703,7 @@
       <c r="A477" s="5">
         <v>4</v>
       </c>
-      <c r="B477" s="37" t="s">
+      <c r="B477" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C477" s="5">
@@ -20712,7 +20727,7 @@
       <c r="I477" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J477" s="38">
+      <c r="J477" s="33">
         <v>7.9861111111111105E-4</v>
       </c>
       <c r="K477" s="1">
@@ -20730,7 +20745,7 @@
       <c r="A478" s="5">
         <v>4</v>
       </c>
-      <c r="B478" s="37" t="s">
+      <c r="B478" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C478" s="5">
@@ -20754,7 +20769,7 @@
       <c r="I478" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J478" s="38">
+      <c r="J478" s="33">
         <v>3.2407407407407406E-4</v>
       </c>
       <c r="K478" s="1">
@@ -20772,7 +20787,7 @@
       <c r="A479" s="5">
         <v>4</v>
       </c>
-      <c r="B479" s="37" t="s">
+      <c r="B479" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C479" s="5">
@@ -20792,7 +20807,7 @@
       </c>
       <c r="H479" s="3"/>
       <c r="I479" s="1"/>
-      <c r="J479" s="38">
+      <c r="J479" s="33">
         <v>1.9675925925925926E-4</v>
       </c>
       <c r="K479" s="1"/>
@@ -20808,7 +20823,7 @@
       <c r="A480" s="5">
         <v>4</v>
       </c>
-      <c r="B480" s="37" t="s">
+      <c r="B480" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C480" s="5">
@@ -20832,7 +20847,7 @@
       <c r="I480" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J480" s="38">
+      <c r="J480" s="33">
         <v>1.9675925925925926E-4</v>
       </c>
       <c r="K480" s="1">
@@ -20850,7 +20865,7 @@
       <c r="A481" s="5">
         <v>4</v>
       </c>
-      <c r="B481" s="37" t="s">
+      <c r="B481" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C481" s="5">
@@ -20874,7 +20889,7 @@
       <c r="I481" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J481" s="38">
+      <c r="J481" s="33">
         <v>1.4814814814814814E-3</v>
       </c>
       <c r="K481" s="1">
@@ -20892,7 +20907,7 @@
       <c r="A482" s="5">
         <v>4</v>
       </c>
-      <c r="B482" s="37" t="s">
+      <c r="B482" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C482" s="5">
@@ -20916,7 +20931,7 @@
       <c r="I482" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J482" s="38">
+      <c r="J482" s="33">
         <v>9.3750000000000007E-4</v>
       </c>
       <c r="K482" s="1">
@@ -20934,7 +20949,7 @@
       <c r="A483" s="5">
         <v>4</v>
       </c>
-      <c r="B483" s="37" t="s">
+      <c r="B483" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C483" s="5">
@@ -20958,7 +20973,7 @@
       <c r="I483" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J483" s="38">
+      <c r="J483" s="33">
         <v>1.423611111111111E-3</v>
       </c>
       <c r="K483" s="1">
@@ -20976,7 +20991,7 @@
       <c r="A484" s="5">
         <v>4</v>
       </c>
-      <c r="B484" s="37" t="s">
+      <c r="B484" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C484" s="5">
@@ -21000,7 +21015,7 @@
       <c r="I484" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J484" s="38">
+      <c r="J484" s="33">
         <v>7.175925925925927E-4</v>
       </c>
       <c r="K484" s="1">
@@ -21018,7 +21033,7 @@
       <c r="A485" s="5">
         <v>4</v>
       </c>
-      <c r="B485" s="37" t="s">
+      <c r="B485" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C485" s="5">
@@ -21042,7 +21057,7 @@
       <c r="I485" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J485" s="38">
+      <c r="J485" s="33">
         <v>5.9027777777777778E-4</v>
       </c>
       <c r="K485" s="1">
@@ -21060,7 +21075,7 @@
       <c r="A486" s="5">
         <v>4</v>
       </c>
-      <c r="B486" s="37" t="s">
+      <c r="B486" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C486" s="5">
@@ -21080,7 +21095,7 @@
       </c>
       <c r="H486" s="3"/>
       <c r="I486" s="1"/>
-      <c r="J486" s="38">
+      <c r="J486" s="33">
         <v>3.1250000000000001E-4</v>
       </c>
       <c r="K486" s="1"/>
@@ -21096,7 +21111,7 @@
       <c r="A487" s="5">
         <v>4</v>
       </c>
-      <c r="B487" s="37" t="s">
+      <c r="B487" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C487" s="5">
@@ -21120,7 +21135,7 @@
       <c r="I487" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J487" s="38">
+      <c r="J487" s="33">
         <v>1.3425925925925925E-3</v>
       </c>
       <c r="K487" s="1">
@@ -21138,7 +21153,7 @@
       <c r="A488" s="5">
         <v>4</v>
       </c>
-      <c r="B488" s="37" t="s">
+      <c r="B488" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C488" s="5">
@@ -21162,7 +21177,7 @@
       <c r="I488" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J488" s="38">
+      <c r="J488" s="33">
         <v>3.1250000000000001E-4</v>
       </c>
       <c r="K488" s="1">
@@ -21180,7 +21195,7 @@
       <c r="A489" s="5">
         <v>4</v>
       </c>
-      <c r="B489" s="37" t="s">
+      <c r="B489" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C489" s="5">
@@ -21204,7 +21219,7 @@
       <c r="I489" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J489" s="38">
+      <c r="J489" s="33">
         <v>1.423611111111111E-3</v>
       </c>
       <c r="K489" s="1">
@@ -21222,7 +21237,7 @@
       <c r="A490" s="5">
         <v>4</v>
       </c>
-      <c r="B490" s="37" t="s">
+      <c r="B490" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C490" s="5">
@@ -21246,7 +21261,7 @@
       <c r="I490" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J490" s="38">
+      <c r="J490" s="33">
         <v>9.1435185185185185E-4</v>
       </c>
       <c r="K490" s="1">
@@ -21264,7 +21279,7 @@
       <c r="A491" s="5">
         <v>4</v>
       </c>
-      <c r="B491" s="37" t="s">
+      <c r="B491" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C491" s="5">
@@ -21288,7 +21303,7 @@
       <c r="I491" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J491" s="38">
+      <c r="J491" s="33">
         <v>5.6712962962962956E-4</v>
       </c>
       <c r="K491" s="1">
@@ -21306,7 +21321,7 @@
       <c r="A492" s="5">
         <v>4</v>
       </c>
-      <c r="B492" s="37" t="s">
+      <c r="B492" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C492" s="5">
@@ -21330,7 +21345,7 @@
       <c r="I492" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J492" s="38">
+      <c r="J492" s="33">
         <v>1.3425925925925925E-3</v>
       </c>
       <c r="K492" s="1">
@@ -21348,7 +21363,7 @@
       <c r="A493" s="5">
         <v>4</v>
       </c>
-      <c r="B493" s="37" t="s">
+      <c r="B493" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C493" s="5">
@@ -21372,7 +21387,7 @@
       <c r="I493" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J493" s="38">
+      <c r="J493" s="33">
         <v>6.7129629629629625E-4</v>
       </c>
       <c r="K493" s="1">
@@ -21390,7 +21405,7 @@
       <c r="A494" s="5">
         <v>4</v>
       </c>
-      <c r="B494" s="37" t="s">
+      <c r="B494" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C494" s="5">
@@ -21414,7 +21429,7 @@
       <c r="I494" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J494" s="38">
+      <c r="J494" s="33">
         <v>4.1666666666666669E-4</v>
       </c>
       <c r="K494" s="1">
@@ -21432,7 +21447,7 @@
       <c r="A495" s="5">
         <v>4</v>
       </c>
-      <c r="B495" s="37" t="s">
+      <c r="B495" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C495" s="5">
@@ -21452,7 +21467,7 @@
       </c>
       <c r="H495" s="3"/>
       <c r="I495" s="1"/>
-      <c r="J495" s="38">
+      <c r="J495" s="33">
         <v>4.1666666666666669E-4</v>
       </c>
       <c r="K495" s="1"/>
@@ -21468,7 +21483,7 @@
       <c r="A496" s="5">
         <v>4</v>
       </c>
-      <c r="B496" s="37" t="s">
+      <c r="B496" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C496" s="5">
@@ -21492,7 +21507,7 @@
       <c r="I496" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J496" s="38">
+      <c r="J496" s="33">
         <v>8.9120370370370362E-4</v>
       </c>
       <c r="K496" s="1">
@@ -21510,7 +21525,7 @@
       <c r="A497" s="5">
         <v>4</v>
       </c>
-      <c r="B497" s="37" t="s">
+      <c r="B497" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C497" s="5">
@@ -21534,7 +21549,7 @@
       <c r="I497" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J497" s="38">
+      <c r="J497" s="33">
         <v>4.8611111111111104E-4</v>
       </c>
       <c r="K497" s="1">
@@ -21552,7 +21567,7 @@
       <c r="A498" s="5">
         <v>4</v>
       </c>
-      <c r="B498" s="37" t="s">
+      <c r="B498" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C498" s="5">
@@ -21576,7 +21591,7 @@
       <c r="I498" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J498" s="38">
+      <c r="J498" s="33">
         <v>6.7129629629629625E-4</v>
       </c>
       <c r="K498" s="1">
@@ -21594,7 +21609,7 @@
       <c r="A499" s="5">
         <v>4</v>
       </c>
-      <c r="B499" s="37" t="s">
+      <c r="B499" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C499" s="5">
@@ -21618,7 +21633,7 @@
       <c r="I499" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J499" s="38">
+      <c r="J499" s="33">
         <v>7.5231481481481471E-4</v>
       </c>
       <c r="K499" s="1">
@@ -21638,7 +21653,7 @@
       <c r="A500" s="5">
         <v>4</v>
       </c>
-      <c r="B500" s="37" t="s">
+      <c r="B500" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C500" s="5">
@@ -21662,7 +21677,7 @@
       <c r="I500" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J500" s="38">
+      <c r="J500" s="33">
         <v>1.1921296296296296E-3</v>
       </c>
       <c r="K500" s="1">
@@ -21680,7 +21695,7 @@
       <c r="A501" s="5">
         <v>4</v>
       </c>
-      <c r="B501" s="37" t="s">
+      <c r="B501" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C501" s="5">
@@ -21704,7 +21719,7 @@
       <c r="I501" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J501" s="38">
+      <c r="J501" s="33">
         <v>1.5046296296296294E-3</v>
       </c>
       <c r="K501" s="1">
@@ -21722,7 +21737,7 @@
       <c r="A502" s="5">
         <v>4</v>
       </c>
-      <c r="B502" s="37" t="s">
+      <c r="B502" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C502" s="5">
@@ -21746,7 +21761,7 @@
       <c r="I502" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J502" s="38">
+      <c r="J502" s="33">
         <v>1.1921296296296296E-3</v>
       </c>
       <c r="K502" s="1">
@@ -21764,7 +21779,7 @@
       <c r="A503" s="5">
         <v>4</v>
       </c>
-      <c r="B503" s="37" t="s">
+      <c r="B503" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C503" s="5">
@@ -21788,7 +21803,7 @@
       <c r="I503" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J503" s="38">
+      <c r="J503" s="33">
         <v>5.7870370370370378E-4</v>
       </c>
       <c r="K503" s="1">
@@ -21806,7 +21821,7 @@
       <c r="A504" s="5">
         <v>4</v>
       </c>
-      <c r="B504" s="37" t="s">
+      <c r="B504" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C504" s="5">
@@ -21826,7 +21841,7 @@
       </c>
       <c r="H504" s="3"/>
       <c r="I504" s="1"/>
-      <c r="J504" s="38">
+      <c r="J504" s="33">
         <v>6.9444444444444444E-5</v>
       </c>
       <c r="K504" s="1"/>
@@ -21842,7 +21857,7 @@
       <c r="A505" s="5">
         <v>4</v>
       </c>
-      <c r="B505" s="37" t="s">
+      <c r="B505" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C505" s="5">
@@ -21866,7 +21881,7 @@
       <c r="I505" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J505" s="38">
+      <c r="J505" s="33">
         <v>5.2083333333333333E-4</v>
       </c>
       <c r="K505" s="1">
@@ -21884,7 +21899,7 @@
       <c r="A506" s="5">
         <v>4</v>
       </c>
-      <c r="B506" s="37" t="s">
+      <c r="B506" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C506" s="5">
@@ -21908,7 +21923,7 @@
       <c r="I506" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J506" s="38">
+      <c r="J506" s="33">
         <v>1.3888888888888889E-4</v>
       </c>
       <c r="K506" s="1">
@@ -21926,7 +21941,7 @@
       <c r="A507" s="5">
         <v>4</v>
       </c>
-      <c r="B507" s="37" t="s">
+      <c r="B507" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C507" s="5">
@@ -21950,7 +21965,7 @@
       <c r="I507" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J507" s="38">
+      <c r="J507" s="33">
         <v>1.6203703703703703E-3</v>
       </c>
       <c r="K507" s="1">
@@ -21968,7 +21983,7 @@
       <c r="A508" s="5">
         <v>4</v>
       </c>
-      <c r="B508" s="37" t="s">
+      <c r="B508" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C508" s="5">
@@ -21992,7 +22007,7 @@
       <c r="I508" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J508" s="38">
+      <c r="J508" s="33">
         <v>6.9444444444444444E-5</v>
       </c>
       <c r="K508" s="1">
@@ -22010,7 +22025,7 @@
       <c r="A509" s="5">
         <v>4</v>
       </c>
-      <c r="B509" s="37" t="s">
+      <c r="B509" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C509" s="5">
@@ -22034,7 +22049,7 @@
       <c r="I509" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J509" s="38">
+      <c r="J509" s="33">
         <v>1.3425925925925925E-3</v>
       </c>
       <c r="K509" s="1">
@@ -22052,7 +22067,7 @@
       <c r="A510" s="5">
         <v>4</v>
       </c>
-      <c r="B510" s="37" t="s">
+      <c r="B510" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C510" s="5">
@@ -22072,7 +22087,7 @@
       </c>
       <c r="H510" s="3"/>
       <c r="I510" s="1"/>
-      <c r="J510" s="38">
+      <c r="J510" s="33">
         <v>2.5462962962962961E-4</v>
       </c>
       <c r="K510" s="1"/>
@@ -22088,7 +22103,7 @@
       <c r="A511" s="5">
         <v>4</v>
       </c>
-      <c r="B511" s="37" t="s">
+      <c r="B511" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C511" s="5">
@@ -22112,7 +22127,7 @@
       <c r="I511" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J511" s="38">
+      <c r="J511" s="33">
         <v>3.5879629629629635E-4</v>
       </c>
       <c r="K511" s="1">
@@ -22130,7 +22145,7 @@
       <c r="A512" s="5">
         <v>4</v>
       </c>
-      <c r="B512" s="37" t="s">
+      <c r="B512" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C512" s="5">
@@ -22154,7 +22169,7 @@
       <c r="I512" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J512" s="38">
+      <c r="J512" s="33">
         <v>2.5462962962962961E-4</v>
       </c>
       <c r="K512" s="1"/>
@@ -22170,7 +22185,7 @@
       <c r="A513" s="5">
         <v>4</v>
       </c>
-      <c r="B513" s="37" t="s">
+      <c r="B513" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C513" s="5">
@@ -22194,7 +22209,7 @@
       <c r="I513" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J513" s="38">
+      <c r="J513" s="33">
         <v>5.5555555555555556E-4</v>
       </c>
       <c r="K513" s="1">
@@ -22212,7 +22227,7 @@
       <c r="A514" s="5">
         <v>4</v>
       </c>
-      <c r="B514" s="37" t="s">
+      <c r="B514" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C514" s="5">
@@ -22236,7 +22251,7 @@
       <c r="I514" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J514" s="38">
+      <c r="J514" s="33">
         <v>1.3078703703703705E-3</v>
       </c>
       <c r="K514" s="1">
@@ -22254,7 +22269,7 @@
       <c r="A515" s="5">
         <v>4</v>
       </c>
-      <c r="B515" s="37" t="s">
+      <c r="B515" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C515" s="5">
@@ -22278,7 +22293,7 @@
       <c r="I515" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J515" s="38">
+      <c r="J515" s="33">
         <v>1.1342592592592591E-3</v>
       </c>
       <c r="K515" s="1">
@@ -22296,7 +22311,7 @@
       <c r="A516" s="5">
         <v>4</v>
       </c>
-      <c r="B516" s="37" t="s">
+      <c r="B516" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C516" s="5">
@@ -22320,7 +22335,7 @@
       <c r="I516" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J516" s="38">
+      <c r="J516" s="33">
         <v>5.3240740740740744E-4</v>
       </c>
       <c r="K516" s="1">
@@ -22338,7 +22353,7 @@
       <c r="A517" s="5">
         <v>4</v>
       </c>
-      <c r="B517" s="37" t="s">
+      <c r="B517" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C517" s="5">
@@ -22362,7 +22377,7 @@
       <c r="I517" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J517" s="38">
+      <c r="J517" s="33">
         <v>5.5555555555555556E-4</v>
       </c>
       <c r="K517" s="1">
@@ -22380,7 +22395,7 @@
       <c r="A518" s="5">
         <v>4</v>
       </c>
-      <c r="B518" s="37" t="s">
+      <c r="B518" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C518" s="5">
@@ -22404,7 +22419,7 @@
       <c r="I518" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J518" s="38">
+      <c r="J518" s="33">
         <v>3.4722222222222222E-5</v>
       </c>
       <c r="K518" s="1">
@@ -22422,7 +22437,7 @@
       <c r="A519" s="5">
         <v>4</v>
       </c>
-      <c r="B519" s="37" t="s">
+      <c r="B519" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C519" s="5">
@@ -22446,7 +22461,7 @@
       <c r="I519" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J519" s="38">
+      <c r="J519" s="33">
         <v>8.9120370370370362E-4</v>
       </c>
       <c r="K519" s="1">
@@ -22464,7 +22479,7 @@
       <c r="A520" s="5">
         <v>4</v>
       </c>
-      <c r="B520" s="37" t="s">
+      <c r="B520" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C520" s="5">
@@ -22488,7 +22503,7 @@
       <c r="I520" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J520" s="38">
+      <c r="J520" s="33">
         <v>1.0532407407407407E-3</v>
       </c>
       <c r="K520" s="1">
@@ -22506,7 +22521,7 @@
       <c r="A521" s="5">
         <v>4</v>
       </c>
-      <c r="B521" s="37" t="s">
+      <c r="B521" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C521" s="5">
@@ -22530,7 +22545,7 @@
       <c r="I521" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J521" s="38">
+      <c r="J521" s="33">
         <v>7.8703703703703705E-4</v>
       </c>
       <c r="K521" s="1">
@@ -22548,7 +22563,7 @@
       <c r="A522" s="5">
         <v>4</v>
       </c>
-      <c r="B522" s="37" t="s">
+      <c r="B522" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C522" s="5">
@@ -22572,7 +22587,7 @@
       <c r="I522" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J522" s="38">
+      <c r="J522" s="33">
         <v>1.0879629629629629E-3</v>
       </c>
       <c r="K522" s="1">
@@ -22590,7 +22605,7 @@
       <c r="A523" s="5">
         <v>4</v>
       </c>
-      <c r="B523" s="37" t="s">
+      <c r="B523" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C523" s="5">
@@ -22614,7 +22629,7 @@
       <c r="I523" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J523" s="38">
+      <c r="J523" s="33">
         <v>1.2962962962962963E-3</v>
       </c>
       <c r="K523" s="1">
@@ -22632,7 +22647,7 @@
       <c r="A524" s="5">
         <v>4</v>
       </c>
-      <c r="B524" s="37" t="s">
+      <c r="B524" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C524" s="5">
@@ -22656,7 +22671,7 @@
       <c r="I524" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J524" s="38">
+      <c r="J524" s="33">
         <v>8.1018518518518516E-4</v>
       </c>
       <c r="K524" s="1">
@@ -22674,7 +22689,7 @@
       <c r="A525" s="5">
         <v>4</v>
       </c>
-      <c r="B525" s="37" t="s">
+      <c r="B525" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C525" s="5">
@@ -22698,7 +22713,7 @@
       <c r="I525" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J525" s="38">
+      <c r="J525" s="33">
         <v>3.4722222222222222E-5</v>
       </c>
       <c r="K525" s="1">
@@ -22716,7 +22731,7 @@
       <c r="A526" s="5">
         <v>4</v>
       </c>
-      <c r="B526" s="37" t="s">
+      <c r="B526" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C526" s="5">
@@ -22740,7 +22755,7 @@
       <c r="I526" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J526" s="38">
+      <c r="J526" s="33">
         <v>9.2592592592592588E-5</v>
       </c>
       <c r="K526" s="1">
@@ -22758,7 +22773,7 @@
       <c r="A527" s="5">
         <v>4</v>
       </c>
-      <c r="B527" s="37" t="s">
+      <c r="B527" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C527" s="5">
@@ -22782,7 +22797,7 @@
       <c r="I527" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J527" s="38">
+      <c r="J527" s="33">
         <v>1.3078703703703705E-3</v>
       </c>
       <c r="K527" s="1">
@@ -22800,7 +22815,7 @@
       <c r="A528" s="5">
         <v>4</v>
       </c>
-      <c r="B528" s="37" t="s">
+      <c r="B528" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C528" s="5">
@@ -22824,7 +22839,7 @@
       <c r="I528" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J528" s="38">
+      <c r="J528" s="33">
         <v>1.3657407407407409E-3</v>
       </c>
       <c r="K528" s="1">
@@ -22842,7 +22857,7 @@
       <c r="A529" s="5">
         <v>4</v>
       </c>
-      <c r="B529" s="37" t="s">
+      <c r="B529" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C529" s="5">
@@ -22866,7 +22881,7 @@
       <c r="I529" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J529" s="38">
+      <c r="J529" s="33">
         <v>7.407407407407407E-4</v>
       </c>
       <c r="K529" s="1">
@@ -22884,7 +22899,7 @@
       <c r="A530" s="5">
         <v>4</v>
       </c>
-      <c r="B530" s="37" t="s">
+      <c r="B530" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C530" s="5">
@@ -22908,7 +22923,7 @@
       <c r="I530" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J530" s="38">
+      <c r="J530" s="33">
         <v>8.1018518518518516E-5</v>
       </c>
       <c r="K530" s="1">
@@ -22926,7 +22941,7 @@
       <c r="A531" s="5">
         <v>4</v>
       </c>
-      <c r="B531" s="37" t="s">
+      <c r="B531" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C531" s="5">
@@ -22946,7 +22961,7 @@
       </c>
       <c r="H531" s="3"/>
       <c r="I531" s="1"/>
-      <c r="J531" s="38">
+      <c r="J531" s="33">
         <v>6.9444444444444444E-5</v>
       </c>
       <c r="K531" s="1"/>
@@ -22962,7 +22977,7 @@
       <c r="A532" s="5">
         <v>4</v>
       </c>
-      <c r="B532" s="37" t="s">
+      <c r="B532" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C532" s="5">
@@ -22986,7 +23001,7 @@
       <c r="I532" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J532" s="38">
+      <c r="J532" s="33">
         <v>8.9120370370370362E-4</v>
       </c>
       <c r="K532" s="1">
@@ -23004,7 +23019,7 @@
       <c r="A533" s="5">
         <v>4</v>
       </c>
-      <c r="B533" s="37" t="s">
+      <c r="B533" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C533" s="5">
@@ -23028,7 +23043,7 @@
       <c r="I533" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J533" s="38">
+      <c r="J533" s="33">
         <v>1.9675925925925926E-4</v>
       </c>
       <c r="K533" s="1">
@@ -23046,7 +23061,7 @@
       <c r="A534" s="5">
         <v>4</v>
       </c>
-      <c r="B534" s="37" t="s">
+      <c r="B534" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C534" s="5">
@@ -23070,7 +23085,7 @@
       <c r="I534" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J534" s="38">
+      <c r="J534" s="33">
         <v>1.3888888888888889E-4</v>
       </c>
       <c r="K534" s="1">
@@ -23088,7 +23103,7 @@
       <c r="A535" s="5">
         <v>4</v>
       </c>
-      <c r="B535" s="37" t="s">
+      <c r="B535" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C535" s="5">
@@ -23112,7 +23127,7 @@
       <c r="I535" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J535" s="38">
+      <c r="J535" s="33">
         <v>1.6203703703703703E-3</v>
       </c>
       <c r="K535" s="1">
@@ -23130,7 +23145,7 @@
       <c r="A536" s="5">
         <v>4</v>
       </c>
-      <c r="B536" s="37" t="s">
+      <c r="B536" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C536" s="5">
@@ -23150,7 +23165,7 @@
       </c>
       <c r="H536" s="3"/>
       <c r="I536" s="1"/>
-      <c r="J536" s="38">
+      <c r="J536" s="33">
         <v>4.9768518518518521E-4</v>
       </c>
       <c r="K536" s="1"/>
@@ -23166,7 +23181,7 @@
       <c r="A537" s="5">
         <v>4</v>
       </c>
-      <c r="B537" s="37" t="s">
+      <c r="B537" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C537" s="5">
@@ -23190,7 +23205,7 @@
       <c r="I537" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J537" s="38">
+      <c r="J537" s="33">
         <v>1.4004629629629629E-3</v>
       </c>
       <c r="K537" s="1">
@@ -23208,7 +23223,7 @@
       <c r="A538" s="5">
         <v>4</v>
       </c>
-      <c r="B538" s="37" t="s">
+      <c r="B538" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C538" s="5">
@@ -23232,7 +23247,7 @@
       <c r="I538" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J538" s="38">
+      <c r="J538" s="33">
         <v>1.4004629629629629E-3</v>
       </c>
       <c r="K538" s="1">
@@ -23250,7 +23265,7 @@
       <c r="A539" s="5">
         <v>4</v>
       </c>
-      <c r="B539" s="37" t="s">
+      <c r="B539" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C539" s="5">
@@ -23274,7 +23289,7 @@
       <c r="I539" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J539" s="38">
+      <c r="J539" s="33">
         <v>9.2592592592592585E-4</v>
       </c>
       <c r="K539" s="1">
@@ -23292,7 +23307,7 @@
       <c r="A540" s="5">
         <v>4</v>
       </c>
-      <c r="B540" s="37" t="s">
+      <c r="B540" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C540" s="5">
@@ -23316,7 +23331,7 @@
       <c r="I540" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J540" s="38">
+      <c r="J540" s="33">
         <v>1.0648148148148147E-3</v>
       </c>
       <c r="K540" s="1">
@@ -23334,7 +23349,7 @@
       <c r="A541" s="5">
         <v>4</v>
       </c>
-      <c r="B541" s="37" t="s">
+      <c r="B541" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C541" s="5">
@@ -23358,7 +23373,7 @@
       <c r="I541" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J541" s="38">
+      <c r="J541" s="33">
         <v>4.9768518518518521E-4</v>
       </c>
       <c r="K541" s="1">
@@ -23376,7 +23391,7 @@
       <c r="A542" s="5">
         <v>4</v>
       </c>
-      <c r="B542" s="37" t="s">
+      <c r="B542" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C542" s="5">
@@ -23400,7 +23415,7 @@
       <c r="I542" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J542" s="38">
+      <c r="J542" s="33">
         <v>1.0648148148148147E-3</v>
       </c>
       <c r="K542" s="1">
@@ -23418,7 +23433,7 @@
       <c r="A543" s="5">
         <v>4</v>
       </c>
-      <c r="B543" s="37" t="s">
+      <c r="B543" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C543" s="5">
@@ -23442,7 +23457,7 @@
       <c r="I543" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J543" s="38">
+      <c r="J543" s="33">
         <v>9.1435185185185185E-4</v>
       </c>
       <c r="K543" s="1">
@@ -23460,7 +23475,7 @@
       <c r="A544" s="5">
         <v>4</v>
       </c>
-      <c r="B544" s="37" t="s">
+      <c r="B544" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C544" s="5">
@@ -23484,7 +23499,7 @@
       <c r="I544" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J544" s="38">
+      <c r="J544" s="33">
         <v>1.6435185185185183E-3</v>
       </c>
       <c r="K544" s="1">
@@ -23502,7 +23517,7 @@
       <c r="A545" s="5">
         <v>4</v>
       </c>
-      <c r="B545" s="37" t="s">
+      <c r="B545" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C545" s="5">
@@ -23526,7 +23541,7 @@
       <c r="I545" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J545" s="38">
+      <c r="J545" s="33">
         <v>1.3194444444444443E-3</v>
       </c>
       <c r="K545" s="1">
@@ -23544,7 +23559,7 @@
       <c r="A546" s="5">
         <v>4</v>
       </c>
-      <c r="B546" s="37" t="s">
+      <c r="B546" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C546" s="5">
@@ -23568,7 +23583,7 @@
       <c r="I546" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J546" s="38">
+      <c r="J546" s="33">
         <v>1.25E-3</v>
       </c>
       <c r="K546" s="1">
@@ -23586,7 +23601,7 @@
       <c r="A547" s="5">
         <v>4</v>
       </c>
-      <c r="B547" s="37" t="s">
+      <c r="B547" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C547" s="5">
@@ -23610,7 +23625,7 @@
       <c r="I547" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J547" s="38">
+      <c r="J547" s="33">
         <v>5.4398148148148144E-4</v>
       </c>
       <c r="K547" s="1">
@@ -23628,7 +23643,7 @@
       <c r="A548" s="5">
         <v>4</v>
       </c>
-      <c r="B548" s="37" t="s">
+      <c r="B548" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C548" s="5">
@@ -23652,7 +23667,7 @@
       <c r="I548" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J548" s="38">
+      <c r="J548" s="33">
         <v>3.2407407407407406E-4</v>
       </c>
       <c r="K548" s="1">
@@ -23670,7 +23685,7 @@
       <c r="A549" s="5">
         <v>4</v>
       </c>
-      <c r="B549" s="37" t="s">
+      <c r="B549" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C549" s="5">
@@ -23694,7 +23709,7 @@
       <c r="I549" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J549" s="38">
+      <c r="J549" s="33">
         <v>1.2152777777777778E-3</v>
       </c>
       <c r="K549" s="1">
@@ -23712,7 +23727,7 @@
       <c r="A550" s="5">
         <v>4</v>
       </c>
-      <c r="B550" s="37" t="s">
+      <c r="B550" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C550" s="5">
@@ -23736,7 +23751,7 @@
       <c r="I550" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J550" s="38">
+      <c r="J550" s="33">
         <v>1.0763888888888889E-3</v>
       </c>
       <c r="K550" s="1">
@@ -23754,7 +23769,7 @@
       <c r="A551" s="5">
         <v>4</v>
       </c>
-      <c r="B551" s="37" t="s">
+      <c r="B551" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C551" s="5">
@@ -23778,7 +23793,7 @@
       <c r="I551" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J551" s="38">
+      <c r="J551" s="33">
         <v>1.1342592592592591E-3</v>
       </c>
       <c r="K551" s="1">
@@ -23796,7 +23811,7 @@
       <c r="A552" s="5">
         <v>4</v>
       </c>
-      <c r="B552" s="37" t="s">
+      <c r="B552" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C552" s="5">
@@ -23816,7 +23831,7 @@
       </c>
       <c r="H552" s="3"/>
       <c r="I552" s="1"/>
-      <c r="J552" s="38">
+      <c r="J552" s="33">
         <v>3.2407407407407406E-4</v>
       </c>
       <c r="K552" s="1"/>
@@ -23832,7 +23847,7 @@
       <c r="A553" s="5">
         <v>4</v>
       </c>
-      <c r="B553" s="37" t="s">
+      <c r="B553" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C553" s="5">
@@ -23856,7 +23871,7 @@
       <c r="I553" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J553" s="38">
+      <c r="J553" s="33">
         <v>1.0763888888888889E-3</v>
       </c>
       <c r="K553" s="1">
@@ -23874,7 +23889,7 @@
       <c r="A554" s="5">
         <v>4</v>
       </c>
-      <c r="B554" s="37" t="s">
+      <c r="B554" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C554" s="5">
@@ -23898,7 +23913,7 @@
       <c r="I554" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J554" s="38">
+      <c r="J554" s="33">
         <v>1.0532407407407407E-3</v>
       </c>
       <c r="K554" s="1">
@@ -23916,7 +23931,7 @@
       <c r="A555" s="5">
         <v>4</v>
       </c>
-      <c r="B555" s="37" t="s">
+      <c r="B555" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C555" s="5">
@@ -23940,7 +23955,7 @@
       <c r="I555" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J555" s="38">
+      <c r="J555" s="33">
         <v>1.2731481481481483E-3</v>
       </c>
       <c r="K555" s="1">
@@ -23958,7 +23973,7 @@
       <c r="A556" s="5">
         <v>4</v>
       </c>
-      <c r="B556" s="37" t="s">
+      <c r="B556" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C556" s="5">
@@ -23982,7 +23997,7 @@
       <c r="I556" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J556" s="38">
+      <c r="J556" s="33">
         <v>1.4004629629629629E-3</v>
       </c>
       <c r="K556" s="1">
@@ -24000,7 +24015,7 @@
       <c r="A557" s="5">
         <v>4</v>
       </c>
-      <c r="B557" s="37" t="s">
+      <c r="B557" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C557" s="5">
@@ -24020,7 +24035,7 @@
       </c>
       <c r="H557" s="3"/>
       <c r="I557" s="1"/>
-      <c r="J557" s="38">
+      <c r="J557" s="33">
         <v>5.2083333333333333E-4</v>
       </c>
       <c r="K557" s="1"/>
@@ -24036,7 +24051,7 @@
       <c r="A558" s="5">
         <v>4</v>
       </c>
-      <c r="B558" s="37" t="s">
+      <c r="B558" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C558" s="5">
@@ -24060,7 +24075,7 @@
       <c r="I558" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J558" s="38">
+      <c r="J558" s="33">
         <v>5.2083333333333333E-4</v>
       </c>
       <c r="K558" s="1">
@@ -24078,7 +24093,7 @@
       <c r="A559" s="5">
         <v>4</v>
       </c>
-      <c r="B559" s="37" t="s">
+      <c r="B559" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C559" s="5">
@@ -24102,7 +24117,7 @@
       <c r="I559" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J559" s="38">
+      <c r="J559" s="33">
         <v>5.2083333333333333E-4</v>
       </c>
       <c r="K559" s="1">
@@ -24120,7 +24135,7 @@
       <c r="A560" s="5">
         <v>4</v>
       </c>
-      <c r="B560" s="37" t="s">
+      <c r="B560" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C560" s="5">
@@ -24144,7 +24159,7 @@
       <c r="I560" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J560" s="38">
+      <c r="J560" s="33">
         <v>8.449074074074075E-4</v>
       </c>
       <c r="K560" s="1">
@@ -24162,7 +24177,7 @@
       <c r="A561" s="5">
         <v>4</v>
       </c>
-      <c r="B561" s="37" t="s">
+      <c r="B561" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C561" s="5">
@@ -24186,7 +24201,7 @@
       <c r="I561" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J561" s="38">
+      <c r="J561" s="33">
         <v>6.4814814814814813E-4</v>
       </c>
       <c r="K561" s="1">
@@ -24204,7 +24219,7 @@
       <c r="A562" s="5">
         <v>4</v>
       </c>
-      <c r="B562" s="37" t="s">
+      <c r="B562" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C562" s="5">
@@ -24228,7 +24243,7 @@
       <c r="I562" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J562" s="38">
+      <c r="J562" s="33">
         <v>6.7129629629629625E-4</v>
       </c>
       <c r="K562" s="1">
@@ -24246,7 +24261,7 @@
       <c r="A563" s="5">
         <v>4</v>
       </c>
-      <c r="B563" s="37" t="s">
+      <c r="B563" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C563" s="5">
@@ -24270,7 +24285,7 @@
       <c r="I563" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J563" s="38">
+      <c r="J563" s="33">
         <v>1.5046296296296294E-3</v>
       </c>
       <c r="K563" s="1">
@@ -24288,7 +24303,7 @@
       <c r="A564" s="5">
         <v>4</v>
       </c>
-      <c r="B564" s="37" t="s">
+      <c r="B564" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C564" s="5">
@@ -24312,7 +24327,7 @@
       <c r="I564" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J564" s="38">
+      <c r="J564" s="33">
         <v>4.8611111111111104E-4</v>
       </c>
       <c r="K564" s="1">
@@ -24330,7 +24345,7 @@
       <c r="A565" s="5">
         <v>4</v>
       </c>
-      <c r="B565" s="37" t="s">
+      <c r="B565" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C565" s="5">
@@ -24354,7 +24369,7 @@
       <c r="I565" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J565" s="38">
+      <c r="J565" s="33">
         <v>1.0879629629629629E-3</v>
       </c>
       <c r="K565" s="1">
@@ -24372,7 +24387,7 @@
       <c r="A566" s="5">
         <v>4</v>
       </c>
-      <c r="B566" s="37" t="s">
+      <c r="B566" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C566" s="5">
@@ -24396,7 +24411,7 @@
       <c r="I566" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J566" s="38">
+      <c r="J566" s="33">
         <v>6.3657407407407402E-4</v>
       </c>
       <c r="K566" s="1">
@@ -24414,7 +24429,7 @@
       <c r="A567" s="5">
         <v>4</v>
       </c>
-      <c r="B567" s="37" t="s">
+      <c r="B567" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C567" s="5">
@@ -24438,7 +24453,7 @@
       <c r="I567" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J567" s="38">
+      <c r="J567" s="33">
         <v>4.6296296296296294E-5</v>
       </c>
       <c r="K567" s="1">
@@ -24456,7 +24471,7 @@
       <c r="A568" s="5">
         <v>4</v>
       </c>
-      <c r="B568" s="37" t="s">
+      <c r="B568" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C568" s="5">
@@ -24480,7 +24495,7 @@
       <c r="I568" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J568" s="38">
+      <c r="J568" s="33">
         <v>1.3541666666666667E-3</v>
       </c>
       <c r="K568" s="1">
@@ -24498,7 +24513,7 @@
       <c r="A569" s="5">
         <v>4</v>
       </c>
-      <c r="B569" s="37" t="s">
+      <c r="B569" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C569" s="5">
@@ -24522,7 +24537,7 @@
       <c r="I569" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J569" s="38">
+      <c r="J569" s="33">
         <v>9.7222222222222209E-4</v>
       </c>
       <c r="K569" s="1">
@@ -24540,7 +24555,7 @@
       <c r="A570" s="5">
         <v>4</v>
       </c>
-      <c r="B570" s="37" t="s">
+      <c r="B570" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C570" s="5">
@@ -24564,7 +24579,7 @@
       <c r="I570" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J570" s="38">
+      <c r="J570" s="33">
         <v>1.5046296296296297E-4</v>
       </c>
       <c r="K570" s="1">
@@ -24582,7 +24597,7 @@
       <c r="A571" s="5">
         <v>4</v>
       </c>
-      <c r="B571" s="37" t="s">
+      <c r="B571" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C571" s="5">
@@ -24602,7 +24617,7 @@
       </c>
       <c r="H571" s="3"/>
       <c r="I571" s="1"/>
-      <c r="J571" s="38">
+      <c r="J571" s="33">
         <v>4.6296296296296294E-5</v>
       </c>
       <c r="K571" s="1"/>
@@ -24618,7 +24633,7 @@
       <c r="A572" s="5">
         <v>4</v>
       </c>
-      <c r="B572" s="37" t="s">
+      <c r="B572" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C572" s="5">
@@ -24642,7 +24657,7 @@
       <c r="I572" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J572" s="38">
+      <c r="J572" s="33">
         <v>9.1435185185185185E-4</v>
       </c>
       <c r="K572" s="1">
@@ -24660,7 +24675,7 @@
       <c r="A573" s="5">
         <v>4</v>
       </c>
-      <c r="B573" s="37" t="s">
+      <c r="B573" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C573" s="5">
@@ -24680,7 +24695,7 @@
       </c>
       <c r="H573" s="3"/>
       <c r="I573" s="1"/>
-      <c r="J573" s="38">
+      <c r="J573" s="33">
         <v>3.8194444444444446E-4</v>
       </c>
       <c r="K573" s="1"/>
@@ -24696,7 +24711,7 @@
       <c r="A574" s="5">
         <v>4</v>
       </c>
-      <c r="B574" s="37" t="s">
+      <c r="B574" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C574" s="5">
@@ -24720,7 +24735,7 @@
       <c r="I574" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J574" s="38">
+      <c r="J574" s="33">
         <v>1.5046296296296294E-3</v>
       </c>
       <c r="K574" s="1">
@@ -24738,7 +24753,7 @@
       <c r="A575" s="5">
         <v>4</v>
       </c>
-      <c r="B575" s="37" t="s">
+      <c r="B575" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C575" s="5">
@@ -24762,7 +24777,7 @@
       <c r="I575" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J575" s="38">
+      <c r="J575" s="33">
         <v>1.4699074074074074E-3</v>
       </c>
       <c r="K575" s="1">
@@ -24780,7 +24795,7 @@
       <c r="A576" s="5">
         <v>4</v>
       </c>
-      <c r="B576" s="37" t="s">
+      <c r="B576" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C576" s="5">
@@ -24804,7 +24819,7 @@
       <c r="I576" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J576" s="38">
+      <c r="J576" s="33">
         <v>1.2268518518518518E-3</v>
       </c>
       <c r="K576" s="1">
@@ -24822,7 +24837,7 @@
       <c r="A577" s="5">
         <v>4</v>
       </c>
-      <c r="B577" s="37" t="s">
+      <c r="B577" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C577" s="5">
@@ -24846,7 +24861,7 @@
       <c r="I577" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J577" s="38">
+      <c r="J577" s="33">
         <v>3.8194444444444446E-4</v>
       </c>
       <c r="K577" s="1">
@@ -24864,7 +24879,7 @@
       <c r="A578" s="5">
         <v>4</v>
       </c>
-      <c r="B578" s="37" t="s">
+      <c r="B578" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C578" s="5">
@@ -24888,7 +24903,7 @@
       <c r="I578" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J578" s="38">
+      <c r="J578" s="33">
         <v>1.2037037037037038E-3</v>
       </c>
       <c r="K578" s="1">
@@ -24906,7 +24921,7 @@
       <c r="A579" s="5">
         <v>4</v>
       </c>
-      <c r="B579" s="37" t="s">
+      <c r="B579" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C579" s="5">
@@ -24930,7 +24945,7 @@
       <c r="I579" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J579" s="38">
+      <c r="J579" s="33">
         <v>6.018518518518519E-4</v>
       </c>
       <c r="K579" s="1">
@@ -24948,7 +24963,7 @@
       <c r="A580" s="5">
         <v>4</v>
       </c>
-      <c r="B580" s="37" t="s">
+      <c r="B580" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C580" s="5">
@@ -24972,7 +24987,7 @@
       <c r="I580" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J580" s="38">
+      <c r="J580" s="33">
         <v>1.5162037037037036E-3</v>
       </c>
       <c r="K580" s="1">
@@ -24990,7 +25005,7 @@
       <c r="A581" s="5">
         <v>4</v>
       </c>
-      <c r="B581" s="37" t="s">
+      <c r="B581" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C581" s="5">
@@ -25014,7 +25029,7 @@
       <c r="I581" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J581" s="38">
+      <c r="J581" s="33">
         <v>6.3657407407407402E-4</v>
       </c>
       <c r="K581" s="1">
@@ -25032,7 +25047,7 @@
       <c r="A582" s="5">
         <v>4</v>
       </c>
-      <c r="B582" s="37" t="s">
+      <c r="B582" s="32" t="s">
         <v>6</v>
       </c>
       <c r="C582" s="5">
@@ -25056,7 +25071,7 @@
       <c r="I582" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J582" s="38">
+      <c r="J582" s="33">
         <v>1.7361111111111112E-4</v>
       </c>
       <c r="K582" s="1">
@@ -25074,7 +25089,7 @@
       <c r="A583" s="5">
         <v>4</v>
       </c>
-      <c r="B583" s="37" t="s">
+      <c r="B583" s="32" t="s">
         <v>10</v>
       </c>
       <c r="C583" s="5">
@@ -25098,7 +25113,7 @@
       <c r="I583" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J583" s="38">
+      <c r="J583" s="33">
         <v>6.3657407407407402E-4</v>
       </c>
       <c r="K583" s="1">
@@ -25116,7 +25131,7 @@
       <c r="A584" s="5">
         <v>4</v>
       </c>
-      <c r="B584" s="37" t="s">
+      <c r="B584" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C584" s="5">
@@ -25140,7 +25155,7 @@
       <c r="I584" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J584" s="38">
+      <c r="J584" s="33">
         <v>6.9444444444444444E-5</v>
       </c>
       <c r="K584" s="1">
@@ -25158,7 +25173,7 @@
       <c r="A585" s="5">
         <v>4</v>
       </c>
-      <c r="B585" s="37" t="s">
+      <c r="B585" s="32" t="s">
         <v>5</v>
       </c>
       <c r="C585" s="5">
@@ -25182,7 +25197,7 @@
       <c r="I585" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J585" s="38">
+      <c r="J585" s="33">
         <v>9.1435185185185185E-4</v>
       </c>
       <c r="K585" s="1">
@@ -25200,7 +25215,7 @@
       <c r="A586" s="5">
         <v>4</v>
       </c>
-      <c r="B586" s="37" t="s">
+      <c r="B586" s="32" t="s">
         <v>11</v>
       </c>
       <c r="C586" s="5">
@@ -25224,7 +25239,7 @@
       <c r="I586" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J586" s="38">
+      <c r="J586" s="33">
         <v>1.1805555555555556E-3</v>
       </c>
       <c r="K586" s="1">
@@ -25242,7 +25257,7 @@
       <c r="A587" s="5">
         <v>4</v>
       </c>
-      <c r="B587" s="37" t="s">
+      <c r="B587" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C587" s="5">
@@ -25266,7 +25281,7 @@
       <c r="I587" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J587" s="38">
+      <c r="J587" s="33">
         <v>8.449074074074075E-4</v>
       </c>
       <c r="K587" s="1">
@@ -25284,7 +25299,7 @@
       <c r="A588" s="5">
         <v>4</v>
       </c>
-      <c r="B588" s="37" t="s">
+      <c r="B588" s="32" t="s">
         <v>0</v>
       </c>
       <c r="C588" s="5">
@@ -25304,7 +25319,7 @@
       </c>
       <c r="H588" s="3"/>
       <c r="I588" s="1"/>
-      <c r="J588" s="38">
+      <c r="J588" s="33">
         <v>6.9444444444444444E-5</v>
       </c>
       <c r="K588" s="1"/>
@@ -25320,7 +25335,7 @@
       <c r="A589" s="5">
         <v>4</v>
       </c>
-      <c r="B589" s="37" t="s">
+      <c r="B589" s="32" t="s">
         <v>34</v>
       </c>
       <c r="C589" s="5">
@@ -25344,7 +25359,7 @@
       <c r="I589" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J589" s="38">
+      <c r="J589" s="33">
         <v>1.261574074074074E-3</v>
       </c>
       <c r="K589" s="1">
@@ -25357,6 +25372,3309 @@
         <v>17</v>
       </c>
       <c r="N589" s="1"/>
+    </row>
+    <row r="590" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A590" s="5">
+        <v>5</v>
+      </c>
+      <c r="B590" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C590" s="5">
+        <v>1</v>
+      </c>
+      <c r="D590" s="4">
+        <v>6.5972222222222213E-4</v>
+      </c>
+      <c r="E590" s="4">
+        <v>1.5972222222222221E-3</v>
+      </c>
+      <c r="F590" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G590" s="5">
+        <v>1</v>
+      </c>
+      <c r="H590" s="3"/>
+      <c r="I590" s="1"/>
+      <c r="J590" s="33">
+        <v>5.0925925925925921E-4</v>
+      </c>
+      <c r="K590" s="1"/>
+      <c r="L590" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="M590" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="N590" s="1"/>
+    </row>
+    <row r="591" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A591" s="5">
+        <v>5</v>
+      </c>
+      <c r="B591" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C591" s="5">
+        <v>1</v>
+      </c>
+      <c r="D591" s="4">
+        <v>6.5972222222222213E-4</v>
+      </c>
+      <c r="E591" s="4">
+        <v>1.5972222222222221E-3</v>
+      </c>
+      <c r="F591" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G591" s="5">
+        <v>2</v>
+      </c>
+      <c r="H591" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I591" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J591" s="33">
+        <v>1.2152777777777778E-3</v>
+      </c>
+      <c r="K591" s="1">
+        <v>1</v>
+      </c>
+      <c r="L591" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M591" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N591" s="1"/>
+    </row>
+    <row r="592" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A592" s="5">
+        <v>5</v>
+      </c>
+      <c r="B592" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C592" s="5">
+        <v>1</v>
+      </c>
+      <c r="D592" s="4">
+        <v>6.5972222222222213E-4</v>
+      </c>
+      <c r="E592" s="4">
+        <v>1.5972222222222221E-3</v>
+      </c>
+      <c r="F592" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G592" s="5">
+        <v>3</v>
+      </c>
+      <c r="H592" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I592" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J592" s="33">
+        <v>6.3657407407407402E-4</v>
+      </c>
+      <c r="K592" s="1">
+        <v>3</v>
+      </c>
+      <c r="L592" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M592" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N592" s="1"/>
+    </row>
+    <row r="593" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A593" s="5">
+        <v>5</v>
+      </c>
+      <c r="B593" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C593" s="5">
+        <v>1</v>
+      </c>
+      <c r="D593" s="4">
+        <v>6.5972222222222213E-4</v>
+      </c>
+      <c r="E593" s="4">
+        <v>1.5972222222222221E-3</v>
+      </c>
+      <c r="F593" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G593" s="5">
+        <v>4</v>
+      </c>
+      <c r="H593" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I593" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J593" s="33">
+        <v>7.407407407407407E-4</v>
+      </c>
+      <c r="K593" s="1">
+        <v>2</v>
+      </c>
+      <c r="L593" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M593" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N593" s="1"/>
+    </row>
+    <row r="594" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A594" s="5">
+        <v>5</v>
+      </c>
+      <c r="B594" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C594" s="5">
+        <v>1</v>
+      </c>
+      <c r="D594" s="4">
+        <v>6.5972222222222213E-4</v>
+      </c>
+      <c r="E594" s="4">
+        <v>1.5972222222222221E-3</v>
+      </c>
+      <c r="F594" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G594" s="3">
+        <v>0</v>
+      </c>
+      <c r="H594" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I594" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J594" s="33">
+        <v>5.0925925925925921E-4</v>
+      </c>
+      <c r="K594" s="1">
+        <v>4</v>
+      </c>
+      <c r="L594" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M594" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N594" s="1"/>
+    </row>
+    <row r="595" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A595" s="5">
+        <v>5</v>
+      </c>
+      <c r="B595" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C595" s="5">
+        <v>2</v>
+      </c>
+      <c r="D595" s="4">
+        <v>2.8935185185185189E-4</v>
+      </c>
+      <c r="E595" s="4">
+        <v>2.488425925925926E-3</v>
+      </c>
+      <c r="F595" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G595" s="5">
+        <v>1</v>
+      </c>
+      <c r="H595" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I595" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J595" s="33">
+        <v>7.6388888888888893E-4</v>
+      </c>
+      <c r="K595" s="1">
+        <v>2</v>
+      </c>
+      <c r="L595" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M595" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N595" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="596" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A596" s="5">
+        <v>5</v>
+      </c>
+      <c r="B596" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C596" s="5">
+        <v>2</v>
+      </c>
+      <c r="D596" s="4">
+        <v>2.8935185185185189E-4</v>
+      </c>
+      <c r="E596" s="4">
+        <v>2.488425925925926E-3</v>
+      </c>
+      <c r="F596" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G596" s="5">
+        <v>2</v>
+      </c>
+      <c r="H596" s="3"/>
+      <c r="I596" s="1"/>
+      <c r="J596" s="33">
+        <v>5.0925925925925921E-4</v>
+      </c>
+      <c r="K596" s="1"/>
+      <c r="L596" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M596" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N596" s="1"/>
+    </row>
+    <row r="597" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A597" s="5">
+        <v>5</v>
+      </c>
+      <c r="B597" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C597" s="5">
+        <v>2</v>
+      </c>
+      <c r="D597" s="4">
+        <v>2.8935185185185189E-4</v>
+      </c>
+      <c r="E597" s="4">
+        <v>2.488425925925926E-3</v>
+      </c>
+      <c r="F597" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G597" s="5">
+        <v>3</v>
+      </c>
+      <c r="H597" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I597" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J597" s="33">
+        <v>6.3657407407407402E-4</v>
+      </c>
+      <c r="K597" s="1">
+        <v>3</v>
+      </c>
+      <c r="L597" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M597" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N597" s="1"/>
+    </row>
+    <row r="598" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A598" s="5">
+        <v>5</v>
+      </c>
+      <c r="B598" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C598" s="5">
+        <v>2</v>
+      </c>
+      <c r="D598" s="4">
+        <v>2.8935185185185189E-4</v>
+      </c>
+      <c r="E598" s="4">
+        <v>2.488425925925926E-3</v>
+      </c>
+      <c r="F598" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G598" s="5">
+        <v>4</v>
+      </c>
+      <c r="H598" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I598" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J598" s="33">
+        <v>6.3657407407407402E-4</v>
+      </c>
+      <c r="K598" s="1">
+        <v>4</v>
+      </c>
+      <c r="L598" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M598" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N598" s="1"/>
+    </row>
+    <row r="599" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A599" s="5">
+        <v>5</v>
+      </c>
+      <c r="B599" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C599" s="5">
+        <v>2</v>
+      </c>
+      <c r="D599" s="4">
+        <v>2.8935185185185189E-4</v>
+      </c>
+      <c r="E599" s="4">
+        <v>2.488425925925926E-3</v>
+      </c>
+      <c r="F599" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G599" s="3">
+        <v>0</v>
+      </c>
+      <c r="H599" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I599" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J599" s="33">
+        <v>1.1342592592592591E-3</v>
+      </c>
+      <c r="K599" s="1">
+        <v>1</v>
+      </c>
+      <c r="L599" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M599" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N599" s="1"/>
+    </row>
+    <row r="600" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A600" s="5">
+        <v>5</v>
+      </c>
+      <c r="B600" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C600" s="5">
+        <v>3</v>
+      </c>
+      <c r="D600" s="4">
+        <v>2.5694444444444445E-3</v>
+      </c>
+      <c r="E600" s="4">
+        <v>3.37962962962963E-3</v>
+      </c>
+      <c r="F600" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G600" s="5">
+        <v>1</v>
+      </c>
+      <c r="H600" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I600" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J600" s="33">
+        <v>6.3657407407407402E-4</v>
+      </c>
+      <c r="K600" s="1">
+        <v>4</v>
+      </c>
+      <c r="L600" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M600" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N600" s="1"/>
+    </row>
+    <row r="601" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A601" s="5">
+        <v>5</v>
+      </c>
+      <c r="B601" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C601" s="5">
+        <v>3</v>
+      </c>
+      <c r="D601" s="4">
+        <v>2.5694444444444445E-3</v>
+      </c>
+      <c r="E601" s="4">
+        <v>3.37962962962963E-3</v>
+      </c>
+      <c r="F601" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G601" s="5">
+        <v>2</v>
+      </c>
+      <c r="H601" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I601" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J601" s="33">
+        <v>1.25E-3</v>
+      </c>
+      <c r="K601" s="1">
+        <v>1</v>
+      </c>
+      <c r="L601" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M601" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N601" s="1"/>
+    </row>
+    <row r="602" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A602" s="5">
+        <v>5</v>
+      </c>
+      <c r="B602" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C602" s="5">
+        <v>3</v>
+      </c>
+      <c r="D602" s="4">
+        <v>2.5694444444444445E-3</v>
+      </c>
+      <c r="E602" s="4">
+        <v>3.37962962962963E-3</v>
+      </c>
+      <c r="F602" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G602" s="5">
+        <v>3</v>
+      </c>
+      <c r="H602" s="3"/>
+      <c r="I602" s="1"/>
+      <c r="J602" s="33">
+        <v>6.3657407407407402E-4</v>
+      </c>
+      <c r="K602" s="1"/>
+      <c r="L602" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M602" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N602" s="1"/>
+    </row>
+    <row r="603" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A603" s="5">
+        <v>5</v>
+      </c>
+      <c r="B603" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C603" s="5">
+        <v>3</v>
+      </c>
+      <c r="D603" s="4">
+        <v>2.5694444444444445E-3</v>
+      </c>
+      <c r="E603" s="4">
+        <v>3.37962962962963E-3</v>
+      </c>
+      <c r="F603" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G603" s="5">
+        <v>4</v>
+      </c>
+      <c r="H603" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I603" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J603" s="33">
+        <v>1.0995370370370371E-3</v>
+      </c>
+      <c r="K603" s="1">
+        <v>2</v>
+      </c>
+      <c r="L603" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M603" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N603" s="1"/>
+    </row>
+    <row r="604" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A604" s="5">
+        <v>5</v>
+      </c>
+      <c r="B604" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C604" s="5">
+        <v>3</v>
+      </c>
+      <c r="D604" s="4">
+        <v>2.5694444444444445E-3</v>
+      </c>
+      <c r="E604" s="4">
+        <v>3.37962962962963E-3</v>
+      </c>
+      <c r="F604" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G604" s="3">
+        <v>0</v>
+      </c>
+      <c r="H604" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I604" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J604" s="33">
+        <v>7.5231481481481471E-4</v>
+      </c>
+      <c r="K604" s="1">
+        <v>3</v>
+      </c>
+      <c r="L604" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M604" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N604" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="605" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A605" s="5">
+        <v>5</v>
+      </c>
+      <c r="B605" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C605" s="5">
+        <v>4</v>
+      </c>
+      <c r="D605" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E605" s="4">
+        <v>4.5486111111111109E-3</v>
+      </c>
+      <c r="F605" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G605" s="5">
+        <v>1</v>
+      </c>
+      <c r="H605" s="3"/>
+      <c r="I605" s="1"/>
+      <c r="J605" s="33">
+        <v>3.5879629629629635E-4</v>
+      </c>
+      <c r="K605" s="1">
+        <v>4</v>
+      </c>
+      <c r="L605" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M605" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N605" s="1"/>
+    </row>
+    <row r="606" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A606" s="5">
+        <v>5</v>
+      </c>
+      <c r="B606" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C606" s="5">
+        <v>4</v>
+      </c>
+      <c r="D606" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E606" s="4">
+        <v>4.5486111111111109E-3</v>
+      </c>
+      <c r="F606" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G606" s="5">
+        <v>2</v>
+      </c>
+      <c r="H606" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I606" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J606" s="33">
+        <v>3.5879629629629635E-4</v>
+      </c>
+      <c r="K606" s="1"/>
+      <c r="L606" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M606" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N606" s="1"/>
+    </row>
+    <row r="607" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A607" s="5">
+        <v>5</v>
+      </c>
+      <c r="B607" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C607" s="5">
+        <v>4</v>
+      </c>
+      <c r="D607" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E607" s="4">
+        <v>4.5486111111111109E-3</v>
+      </c>
+      <c r="F607" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G607" s="5">
+        <v>3</v>
+      </c>
+      <c r="H607" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I607" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J607" s="33">
+        <v>9.1435185185185185E-4</v>
+      </c>
+      <c r="K607" s="1">
+        <v>1</v>
+      </c>
+      <c r="L607" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M607" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N607" s="1"/>
+    </row>
+    <row r="608" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A608" s="5">
+        <v>5</v>
+      </c>
+      <c r="B608" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C608" s="5">
+        <v>4</v>
+      </c>
+      <c r="D608" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E608" s="4">
+        <v>4.5486111111111109E-3</v>
+      </c>
+      <c r="F608" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G608" s="5">
+        <v>4</v>
+      </c>
+      <c r="H608" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I608" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J608" s="33">
+        <v>5.6712962962962956E-4</v>
+      </c>
+      <c r="K608" s="1">
+        <v>3</v>
+      </c>
+      <c r="L608" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M608" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N608" s="1"/>
+    </row>
+    <row r="609" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A609" s="5">
+        <v>5</v>
+      </c>
+      <c r="B609" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C609" s="5">
+        <v>4</v>
+      </c>
+      <c r="D609" s="4">
+        <v>3.472222222222222E-3</v>
+      </c>
+      <c r="E609" s="4">
+        <v>4.5486111111111109E-3</v>
+      </c>
+      <c r="F609" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G609" s="3">
+        <v>0</v>
+      </c>
+      <c r="H609" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I609" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J609" s="33">
+        <v>9.1435185185185185E-4</v>
+      </c>
+      <c r="K609" s="1">
+        <v>2</v>
+      </c>
+      <c r="L609" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M609" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N609" s="1"/>
+    </row>
+    <row r="610" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A610" s="5">
+        <v>5</v>
+      </c>
+      <c r="B610" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C610" s="5">
+        <v>5</v>
+      </c>
+      <c r="D610" s="4">
+        <v>4.6296296296296302E-3</v>
+      </c>
+      <c r="E610" s="4">
+        <v>5.7523148148148143E-3</v>
+      </c>
+      <c r="F610" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G610" s="5">
+        <v>1</v>
+      </c>
+      <c r="H610" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I610" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J610" s="33">
+        <v>3.5879629629629635E-4</v>
+      </c>
+      <c r="K610" s="1">
+        <v>3</v>
+      </c>
+      <c r="L610" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M610" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N610" s="1"/>
+    </row>
+    <row r="611" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A611" s="5">
+        <v>5</v>
+      </c>
+      <c r="B611" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C611" s="5">
+        <v>5</v>
+      </c>
+      <c r="D611" s="4">
+        <v>4.6296296296296302E-3</v>
+      </c>
+      <c r="E611" s="4">
+        <v>5.7523148148148143E-3</v>
+      </c>
+      <c r="F611" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G611" s="5">
+        <v>2</v>
+      </c>
+      <c r="H611" s="3"/>
+      <c r="I611" s="1"/>
+      <c r="J611" s="33">
+        <v>3.1250000000000001E-4</v>
+      </c>
+      <c r="K611" s="1"/>
+      <c r="L611" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M611" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N611" s="1"/>
+      <c r="O611" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="612" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A612" s="5">
+        <v>5</v>
+      </c>
+      <c r="B612" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C612" s="5">
+        <v>5</v>
+      </c>
+      <c r="D612" s="4">
+        <v>4.6296296296296302E-3</v>
+      </c>
+      <c r="E612" s="4">
+        <v>5.7523148148148143E-3</v>
+      </c>
+      <c r="F612" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G612" s="5">
+        <v>3</v>
+      </c>
+      <c r="H612" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I612" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J612" s="33">
+        <v>7.6388888888888893E-4</v>
+      </c>
+      <c r="K612" s="1">
+        <v>2</v>
+      </c>
+      <c r="L612" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M612" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N612" s="1"/>
+    </row>
+    <row r="613" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A613" s="5">
+        <v>5</v>
+      </c>
+      <c r="B613" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C613" s="5">
+        <v>5</v>
+      </c>
+      <c r="D613" s="4">
+        <v>4.6296296296296302E-3</v>
+      </c>
+      <c r="E613" s="4">
+        <v>5.7523148148148143E-3</v>
+      </c>
+      <c r="F613" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G613" s="5">
+        <v>4</v>
+      </c>
+      <c r="H613" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I613" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J613" s="33">
+        <v>9.1435185185185185E-4</v>
+      </c>
+      <c r="K613" s="1">
+        <v>1</v>
+      </c>
+      <c r="L613" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M613" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N613" s="1"/>
+    </row>
+    <row r="614" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A614" s="5">
+        <v>5</v>
+      </c>
+      <c r="B614" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C614" s="5">
+        <v>5</v>
+      </c>
+      <c r="D614" s="4">
+        <v>4.6296296296296302E-3</v>
+      </c>
+      <c r="E614" s="4">
+        <v>5.7523148148148143E-3</v>
+      </c>
+      <c r="F614" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G614" s="3">
+        <v>0</v>
+      </c>
+      <c r="H614" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I614" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J614" s="33">
+        <v>3.1250000000000001E-4</v>
+      </c>
+      <c r="K614" s="1">
+        <v>4</v>
+      </c>
+      <c r="L614" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M614" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N614" s="1"/>
+    </row>
+    <row r="615" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A615" s="5">
+        <v>5</v>
+      </c>
+      <c r="B615" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C615" s="5">
+        <v>6</v>
+      </c>
+      <c r="D615" s="4">
+        <v>5.8449074074074072E-3</v>
+      </c>
+      <c r="E615" s="4">
+        <v>7.013888888888889E-3</v>
+      </c>
+      <c r="F615" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G615" s="5">
+        <v>1</v>
+      </c>
+      <c r="H615" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I615" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J615" s="33">
+        <v>4.7453703703703704E-4</v>
+      </c>
+      <c r="K615" s="1">
+        <v>2</v>
+      </c>
+      <c r="L615" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M615" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N615" s="1"/>
+    </row>
+    <row r="616" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A616" s="5">
+        <v>5</v>
+      </c>
+      <c r="B616" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C616" s="5">
+        <v>6</v>
+      </c>
+      <c r="D616" s="4">
+        <v>5.8449074074074072E-3</v>
+      </c>
+      <c r="E616" s="4">
+        <v>7.013888888888889E-3</v>
+      </c>
+      <c r="F616" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G616" s="5">
+        <v>2</v>
+      </c>
+      <c r="H616" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I616" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J616" s="33">
+        <v>9.7222222222222209E-4</v>
+      </c>
+      <c r="K616" s="1">
+        <v>1</v>
+      </c>
+      <c r="L616" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M616" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N616" s="1"/>
+    </row>
+    <row r="617" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A617" s="5">
+        <v>5</v>
+      </c>
+      <c r="B617" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C617" s="5">
+        <v>6</v>
+      </c>
+      <c r="D617" s="4">
+        <v>5.8449074074074072E-3</v>
+      </c>
+      <c r="E617" s="4">
+        <v>7.013888888888889E-3</v>
+      </c>
+      <c r="F617" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G617" s="5">
+        <v>3</v>
+      </c>
+      <c r="H617" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I617" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J617" s="33">
+        <v>2.7777777777777778E-4</v>
+      </c>
+      <c r="K617" s="1">
+        <v>4</v>
+      </c>
+      <c r="L617" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M617" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N617" s="1"/>
+    </row>
+    <row r="618" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A618" s="5">
+        <v>5</v>
+      </c>
+      <c r="B618" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C618" s="5">
+        <v>6</v>
+      </c>
+      <c r="D618" s="4">
+        <v>5.8449074074074072E-3</v>
+      </c>
+      <c r="E618" s="4">
+        <v>7.013888888888889E-3</v>
+      </c>
+      <c r="F618" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G618" s="5">
+        <v>4</v>
+      </c>
+      <c r="H618" s="3"/>
+      <c r="I618" s="1"/>
+      <c r="J618" s="33">
+        <v>2.7777777777777778E-4</v>
+      </c>
+      <c r="K618" s="1"/>
+      <c r="L618" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M618" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N618" s="1"/>
+    </row>
+    <row r="619" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A619" s="5">
+        <v>5</v>
+      </c>
+      <c r="B619" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C619" s="5">
+        <v>6</v>
+      </c>
+      <c r="D619" s="4">
+        <v>5.8449074074074072E-3</v>
+      </c>
+      <c r="E619" s="4">
+        <v>7.013888888888889E-3</v>
+      </c>
+      <c r="F619" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G619" s="3">
+        <v>0</v>
+      </c>
+      <c r="H619" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I619" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J619" s="33">
+        <v>3.5879629629629635E-4</v>
+      </c>
+      <c r="K619" s="1">
+        <v>3</v>
+      </c>
+      <c r="L619" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M619" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N619" s="1"/>
+    </row>
+    <row r="620" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A620" s="5">
+        <v>5</v>
+      </c>
+      <c r="B620" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C620" s="5">
+        <v>7</v>
+      </c>
+      <c r="D620" s="4">
+        <v>7.0949074074074074E-3</v>
+      </c>
+      <c r="E620" s="4">
+        <v>8.1712962962962963E-3</v>
+      </c>
+      <c r="F620" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G620" s="5">
+        <v>1</v>
+      </c>
+      <c r="H620" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I620" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J620" s="33">
+        <v>3.7037037037037035E-4</v>
+      </c>
+      <c r="K620" s="1">
+        <v>4</v>
+      </c>
+      <c r="L620" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M620" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N620" s="1"/>
+    </row>
+    <row r="621" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A621" s="5">
+        <v>5</v>
+      </c>
+      <c r="B621" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C621" s="5">
+        <v>7</v>
+      </c>
+      <c r="D621" s="4">
+        <v>7.0949074074074074E-3</v>
+      </c>
+      <c r="E621" s="4">
+        <v>8.1712962962962963E-3</v>
+      </c>
+      <c r="F621" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G621" s="5">
+        <v>2</v>
+      </c>
+      <c r="H621" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I621" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J621" s="33">
+        <v>9.9537037037037042E-4</v>
+      </c>
+      <c r="K621" s="1">
+        <v>1</v>
+      </c>
+      <c r="L621" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M621" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N621" s="1"/>
+    </row>
+    <row r="622" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A622" s="5">
+        <v>5</v>
+      </c>
+      <c r="B622" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C622" s="5">
+        <v>7</v>
+      </c>
+      <c r="D622" s="4">
+        <v>7.0949074074074074E-3</v>
+      </c>
+      <c r="E622" s="4">
+        <v>8.1712962962962963E-3</v>
+      </c>
+      <c r="F622" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G622" s="5">
+        <v>3</v>
+      </c>
+      <c r="H622" s="3"/>
+      <c r="I622" s="1"/>
+      <c r="J622" s="33">
+        <v>3.7037037037037035E-4</v>
+      </c>
+      <c r="K622" s="1"/>
+      <c r="L622" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M622" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N622" s="1"/>
+    </row>
+    <row r="623" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A623" s="5">
+        <v>5</v>
+      </c>
+      <c r="B623" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C623" s="5">
+        <v>7</v>
+      </c>
+      <c r="D623" s="4">
+        <v>7.0949074074074074E-3</v>
+      </c>
+      <c r="E623" s="4">
+        <v>8.1712962962962963E-3</v>
+      </c>
+      <c r="F623" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G623" s="5">
+        <v>4</v>
+      </c>
+      <c r="H623" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I623" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J623" s="33">
+        <v>7.7546296296296304E-4</v>
+      </c>
+      <c r="K623" s="1">
+        <v>3</v>
+      </c>
+      <c r="L623" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M623" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N623" s="1"/>
+    </row>
+    <row r="624" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A624" s="5">
+        <v>5</v>
+      </c>
+      <c r="B624" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C624" s="5">
+        <v>7</v>
+      </c>
+      <c r="D624" s="4">
+        <v>7.0949074074074074E-3</v>
+      </c>
+      <c r="E624" s="4">
+        <v>8.1712962962962963E-3</v>
+      </c>
+      <c r="F624" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G624" s="3">
+        <v>0</v>
+      </c>
+      <c r="H624" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I624" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J624" s="33">
+        <v>7.7546296296296304E-4</v>
+      </c>
+      <c r="K624" s="1">
+        <v>2</v>
+      </c>
+      <c r="L624" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M624" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N624" s="1"/>
+    </row>
+    <row r="625" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A625" s="5">
+        <v>5</v>
+      </c>
+      <c r="B625" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C625" s="5">
+        <v>8</v>
+      </c>
+      <c r="D625" s="4">
+        <v>8.2638888888888883E-3</v>
+      </c>
+      <c r="E625" s="4">
+        <v>9.0393518518518522E-3</v>
+      </c>
+      <c r="F625" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G625" s="5">
+        <v>1</v>
+      </c>
+      <c r="H625" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I625" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J625" s="33">
+        <v>1.2152777777777778E-3</v>
+      </c>
+      <c r="K625" s="1">
+        <v>1</v>
+      </c>
+      <c r="L625" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M625" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N625" s="1"/>
+    </row>
+    <row r="626" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A626" s="5">
+        <v>5</v>
+      </c>
+      <c r="B626" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C626" s="5">
+        <v>8</v>
+      </c>
+      <c r="D626" s="4">
+        <v>8.2638888888888883E-3</v>
+      </c>
+      <c r="E626" s="4">
+        <v>9.0393518518518522E-3</v>
+      </c>
+      <c r="F626" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G626" s="5">
+        <v>2</v>
+      </c>
+      <c r="H626" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I626" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J626" s="33">
+        <v>9.1435185185185185E-4</v>
+      </c>
+      <c r="K626" s="1">
+        <v>3</v>
+      </c>
+      <c r="L626" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M626" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N626" s="1"/>
+    </row>
+    <row r="627" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A627" s="5">
+        <v>5</v>
+      </c>
+      <c r="B627" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C627" s="5">
+        <v>8</v>
+      </c>
+      <c r="D627" s="4">
+        <v>8.2638888888888883E-3</v>
+      </c>
+      <c r="E627" s="4">
+        <v>9.0393518518518522E-3</v>
+      </c>
+      <c r="F627" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G627" s="5">
+        <v>3</v>
+      </c>
+      <c r="H627" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I627" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J627" s="33">
+        <v>6.7129629629629625E-4</v>
+      </c>
+      <c r="K627" s="1">
+        <v>4</v>
+      </c>
+      <c r="L627" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M627" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N627" s="1"/>
+    </row>
+    <row r="628" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A628" s="5">
+        <v>5</v>
+      </c>
+      <c r="B628" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C628" s="5">
+        <v>8</v>
+      </c>
+      <c r="D628" s="4">
+        <v>8.2638888888888883E-3</v>
+      </c>
+      <c r="E628" s="4">
+        <v>9.0393518518518522E-3</v>
+      </c>
+      <c r="F628" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G628" s="5">
+        <v>4</v>
+      </c>
+      <c r="H628" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I628" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J628" s="33">
+        <v>6.7129629629629625E-4</v>
+      </c>
+      <c r="K628" s="1">
+        <v>5</v>
+      </c>
+      <c r="L628" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M628" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N628" s="1"/>
+      <c r="O628" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="629" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A629" s="5">
+        <v>5</v>
+      </c>
+      <c r="B629" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C629" s="5">
+        <v>8</v>
+      </c>
+      <c r="D629" s="4">
+        <v>8.2638888888888883E-3</v>
+      </c>
+      <c r="E629" s="4">
+        <v>9.0393518518518522E-3</v>
+      </c>
+      <c r="F629" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G629" s="3">
+        <v>0</v>
+      </c>
+      <c r="H629" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I629" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J629" s="33">
+        <v>1.0300925925925926E-3</v>
+      </c>
+      <c r="K629" s="1">
+        <v>2</v>
+      </c>
+      <c r="L629" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M629" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N629" s="1"/>
+    </row>
+    <row r="630" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A630" s="5">
+        <v>5</v>
+      </c>
+      <c r="B630" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C630" s="5">
+        <v>9</v>
+      </c>
+      <c r="D630" s="4">
+        <v>9.1666666666666667E-3</v>
+      </c>
+      <c r="E630" s="4">
+        <v>1.0011574074074074E-2</v>
+      </c>
+      <c r="F630" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G630" s="5">
+        <v>1</v>
+      </c>
+      <c r="H630" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I630" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J630" s="33">
+        <v>1.0995370370370371E-3</v>
+      </c>
+      <c r="K630" s="1">
+        <v>2</v>
+      </c>
+      <c r="L630" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M630" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N630" s="1"/>
+    </row>
+    <row r="631" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A631" s="5">
+        <v>5</v>
+      </c>
+      <c r="B631" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C631" s="5">
+        <v>9</v>
+      </c>
+      <c r="D631" s="4">
+        <v>9.1666666666666667E-3</v>
+      </c>
+      <c r="E631" s="4">
+        <v>1.0011574074074074E-2</v>
+      </c>
+      <c r="F631" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G631" s="5">
+        <v>2</v>
+      </c>
+      <c r="H631" s="3"/>
+      <c r="I631" s="1"/>
+      <c r="J631" s="33">
+        <v>5.9027777777777778E-4</v>
+      </c>
+      <c r="K631" s="1"/>
+      <c r="L631" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M631" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N631" s="1"/>
+    </row>
+    <row r="632" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A632" s="5">
+        <v>5</v>
+      </c>
+      <c r="B632" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C632" s="5">
+        <v>9</v>
+      </c>
+      <c r="D632" s="4">
+        <v>9.1666666666666667E-3</v>
+      </c>
+      <c r="E632" s="4">
+        <v>1.0011574074074074E-2</v>
+      </c>
+      <c r="F632" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G632" s="5">
+        <v>3</v>
+      </c>
+      <c r="H632" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I632" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J632" s="33">
+        <v>5.9027777777777778E-4</v>
+      </c>
+      <c r="K632" s="1">
+        <v>4</v>
+      </c>
+      <c r="L632" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M632" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N632" s="1"/>
+    </row>
+    <row r="633" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A633" s="5">
+        <v>5</v>
+      </c>
+      <c r="B633" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C633" s="5">
+        <v>9</v>
+      </c>
+      <c r="D633" s="4">
+        <v>9.1666666666666667E-3</v>
+      </c>
+      <c r="E633" s="4">
+        <v>1.0011574074074074E-2</v>
+      </c>
+      <c r="F633" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G633" s="5">
+        <v>4</v>
+      </c>
+      <c r="H633" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I633" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J633" s="33">
+        <v>8.1018518518518516E-4</v>
+      </c>
+      <c r="K633" s="1">
+        <v>3</v>
+      </c>
+      <c r="L633" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M633" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N633" s="1"/>
+    </row>
+    <row r="634" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A634" s="5">
+        <v>5</v>
+      </c>
+      <c r="B634" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C634" s="5">
+        <v>9</v>
+      </c>
+      <c r="D634" s="4">
+        <v>9.1666666666666667E-3</v>
+      </c>
+      <c r="E634" s="4">
+        <v>1.0011574074074074E-2</v>
+      </c>
+      <c r="F634" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G634" s="3">
+        <v>0</v>
+      </c>
+      <c r="H634" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I634" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J634" s="33">
+        <v>1.0995370370370371E-3</v>
+      </c>
+      <c r="K634" s="1">
+        <v>1</v>
+      </c>
+      <c r="L634" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M634" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N634" s="1"/>
+    </row>
+    <row r="635" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A635" s="5">
+        <v>5</v>
+      </c>
+      <c r="B635" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C635" s="5">
+        <v>10</v>
+      </c>
+      <c r="D635" s="4">
+        <v>1.0104166666666668E-2</v>
+      </c>
+      <c r="E635" s="4">
+        <v>1.1249999999999998E-2</v>
+      </c>
+      <c r="F635" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G635" s="5">
+        <v>1</v>
+      </c>
+      <c r="H635" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I635" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J635" s="33">
+        <v>9.0277777777777784E-4</v>
+      </c>
+      <c r="K635" s="1">
+        <v>1</v>
+      </c>
+      <c r="L635" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M635" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N635" s="1"/>
+    </row>
+    <row r="636" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A636" s="5">
+        <v>5</v>
+      </c>
+      <c r="B636" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C636" s="5">
+        <v>10</v>
+      </c>
+      <c r="D636" s="4">
+        <v>1.0104166666666668E-2</v>
+      </c>
+      <c r="E636" s="4">
+        <v>1.1249999999999998E-2</v>
+      </c>
+      <c r="F636" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G636" s="5">
+        <v>2</v>
+      </c>
+      <c r="H636" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I636" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J636" s="33">
+        <v>2.8935185185185189E-4</v>
+      </c>
+      <c r="K636" s="1">
+        <v>4</v>
+      </c>
+      <c r="L636" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M636" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N636" s="1"/>
+    </row>
+    <row r="637" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A637" s="5">
+        <v>5</v>
+      </c>
+      <c r="B637" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C637" s="5">
+        <v>10</v>
+      </c>
+      <c r="D637" s="4">
+        <v>1.0104166666666668E-2</v>
+      </c>
+      <c r="E637" s="4">
+        <v>1.1249999999999998E-2</v>
+      </c>
+      <c r="F637" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G637" s="5">
+        <v>3</v>
+      </c>
+      <c r="H637" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I637" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J637" s="33">
+        <v>2.8935185185185189E-4</v>
+      </c>
+      <c r="K637" s="1">
+        <v>5</v>
+      </c>
+      <c r="L637" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M637" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N637" s="1"/>
+    </row>
+    <row r="638" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A638" s="5">
+        <v>5</v>
+      </c>
+      <c r="B638" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C638" s="5">
+        <v>10</v>
+      </c>
+      <c r="D638" s="4">
+        <v>1.0104166666666668E-2</v>
+      </c>
+      <c r="E638" s="4">
+        <v>1.1249999999999998E-2</v>
+      </c>
+      <c r="F638" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G638" s="5">
+        <v>4</v>
+      </c>
+      <c r="H638" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I638" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J638" s="33">
+        <v>7.7546296296296304E-4</v>
+      </c>
+      <c r="K638" s="1">
+        <v>2</v>
+      </c>
+      <c r="L638" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M638" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N638" s="1"/>
+    </row>
+    <row r="639" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A639" s="5">
+        <v>5</v>
+      </c>
+      <c r="B639" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C639" s="5">
+        <v>10</v>
+      </c>
+      <c r="D639" s="4">
+        <v>1.0104166666666668E-2</v>
+      </c>
+      <c r="E639" s="4">
+        <v>1.1249999999999998E-2</v>
+      </c>
+      <c r="F639" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G639" s="3">
+        <v>0</v>
+      </c>
+      <c r="H639" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I639" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J639" s="33">
+        <v>5.0925925925925921E-4</v>
+      </c>
+      <c r="K639" s="1">
+        <v>3</v>
+      </c>
+      <c r="L639" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M639" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N639" s="1"/>
+    </row>
+    <row r="640" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A640" s="5">
+        <v>5</v>
+      </c>
+      <c r="B640" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C640" s="5">
+        <v>11</v>
+      </c>
+      <c r="D640" s="4">
+        <v>1.1388888888888888E-2</v>
+      </c>
+      <c r="E640" s="4">
+        <v>1.247685185185185E-2</v>
+      </c>
+      <c r="F640" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G640" s="5">
+        <v>1</v>
+      </c>
+      <c r="H640" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I640" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J640" s="33">
+        <v>3.5879629629629635E-4</v>
+      </c>
+      <c r="K640" s="1">
+        <v>4</v>
+      </c>
+      <c r="L640" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M640" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N640" s="1"/>
+    </row>
+    <row r="641" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A641" s="5">
+        <v>5</v>
+      </c>
+      <c r="B641" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C641" s="5">
+        <v>11</v>
+      </c>
+      <c r="D641" s="4">
+        <v>1.1388888888888888E-2</v>
+      </c>
+      <c r="E641" s="4">
+        <v>1.247685185185185E-2</v>
+      </c>
+      <c r="F641" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G641" s="5">
+        <v>2</v>
+      </c>
+      <c r="H641" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I641" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J641" s="33">
+        <v>6.134259259259259E-4</v>
+      </c>
+      <c r="K641" s="1">
+        <v>3</v>
+      </c>
+      <c r="L641" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M641" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N641" s="1"/>
+    </row>
+    <row r="642" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A642" s="5">
+        <v>5</v>
+      </c>
+      <c r="B642" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C642" s="5">
+        <v>11</v>
+      </c>
+      <c r="D642" s="4">
+        <v>1.1388888888888888E-2</v>
+      </c>
+      <c r="E642" s="4">
+        <v>1.247685185185185E-2</v>
+      </c>
+      <c r="F642" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G642" s="5">
+        <v>3</v>
+      </c>
+      <c r="H642" s="3"/>
+      <c r="I642" s="1"/>
+      <c r="J642" s="33">
+        <v>3.5879629629629635E-4</v>
+      </c>
+      <c r="K642" s="1"/>
+      <c r="L642" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M642" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N642" s="1"/>
+    </row>
+    <row r="643" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A643" s="5">
+        <v>5</v>
+      </c>
+      <c r="B643" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C643" s="5">
+        <v>11</v>
+      </c>
+      <c r="D643" s="4">
+        <v>1.1388888888888888E-2</v>
+      </c>
+      <c r="E643" s="4">
+        <v>1.247685185185185E-2</v>
+      </c>
+      <c r="F643" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G643" s="5">
+        <v>4</v>
+      </c>
+      <c r="H643" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I643" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J643" s="33">
+        <v>1.1689814814814816E-3</v>
+      </c>
+      <c r="K643" s="1">
+        <v>1</v>
+      </c>
+      <c r="L643" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M643" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N643" s="1"/>
+    </row>
+    <row r="644" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A644" s="5">
+        <v>5</v>
+      </c>
+      <c r="B644" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C644" s="5">
+        <v>11</v>
+      </c>
+      <c r="D644" s="4">
+        <v>1.1388888888888888E-2</v>
+      </c>
+      <c r="E644" s="4">
+        <v>1.247685185185185E-2</v>
+      </c>
+      <c r="F644" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G644" s="3">
+        <v>0</v>
+      </c>
+      <c r="H644" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I644" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J644" s="33">
+        <v>1.0185185185185186E-3</v>
+      </c>
+      <c r="K644" s="1">
+        <v>2</v>
+      </c>
+      <c r="L644" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M644" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N644" s="1"/>
+    </row>
+    <row r="645" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A645" s="5">
+        <v>5</v>
+      </c>
+      <c r="B645" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C645" s="5">
+        <v>12</v>
+      </c>
+      <c r="D645" s="4">
+        <v>1.255787037037037E-2</v>
+      </c>
+      <c r="E645" s="4">
+        <v>1.34375E-2</v>
+      </c>
+      <c r="F645" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G645" s="5">
+        <v>1</v>
+      </c>
+      <c r="H645" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I645" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J645" s="33">
+        <v>9.1435185185185185E-4</v>
+      </c>
+      <c r="K645" s="1">
+        <v>2</v>
+      </c>
+      <c r="L645" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M645" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N645" s="1"/>
+    </row>
+    <row r="646" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A646" s="5">
+        <v>5</v>
+      </c>
+      <c r="B646" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C646" s="5">
+        <v>12</v>
+      </c>
+      <c r="D646" s="4">
+        <v>1.255787037037037E-2</v>
+      </c>
+      <c r="E646" s="4">
+        <v>1.34375E-2</v>
+      </c>
+      <c r="F646" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G646" s="5">
+        <v>2</v>
+      </c>
+      <c r="H646" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I646" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J646" s="33">
+        <v>7.8703703703703705E-4</v>
+      </c>
+      <c r="K646" s="1">
+        <v>3</v>
+      </c>
+      <c r="L646" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M646" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N646" s="1"/>
+    </row>
+    <row r="647" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A647" s="5">
+        <v>5</v>
+      </c>
+      <c r="B647" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C647" s="5">
+        <v>12</v>
+      </c>
+      <c r="D647" s="4">
+        <v>1.255787037037037E-2</v>
+      </c>
+      <c r="E647" s="4">
+        <v>1.34375E-2</v>
+      </c>
+      <c r="F647" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G647" s="5">
+        <v>3</v>
+      </c>
+      <c r="H647" s="3"/>
+      <c r="I647" s="1"/>
+      <c r="J647" s="1"/>
+      <c r="K647" s="1"/>
+      <c r="L647" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M647" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N647" s="1"/>
+    </row>
+    <row r="648" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A648" s="5">
+        <v>5</v>
+      </c>
+      <c r="B648" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C648" s="5">
+        <v>12</v>
+      </c>
+      <c r="D648" s="4">
+        <v>1.255787037037037E-2</v>
+      </c>
+      <c r="E648" s="4">
+        <v>1.34375E-2</v>
+      </c>
+      <c r="F648" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G648" s="5">
+        <v>4</v>
+      </c>
+      <c r="H648" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I648" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J648" s="48">
+        <v>5.5555555555555556E-4</v>
+      </c>
+      <c r="K648" s="1">
+        <v>5</v>
+      </c>
+      <c r="L648" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M648" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N648" s="1"/>
+    </row>
+    <row r="649" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A649" s="5">
+        <v>5</v>
+      </c>
+      <c r="B649" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C649" s="5">
+        <v>12</v>
+      </c>
+      <c r="D649" s="4">
+        <v>1.255787037037037E-2</v>
+      </c>
+      <c r="E649" s="4">
+        <v>1.34375E-2</v>
+      </c>
+      <c r="F649" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G649" s="3">
+        <v>0</v>
+      </c>
+      <c r="H649" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I649" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J649" s="48">
+        <v>1.0300925925925926E-3</v>
+      </c>
+      <c r="K649" s="1">
+        <v>1</v>
+      </c>
+      <c r="L649" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M649" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N649" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="650" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A650" s="5">
+        <v>5</v>
+      </c>
+      <c r="B650" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C650" s="5">
+        <v>13</v>
+      </c>
+      <c r="D650" s="4">
+        <v>1.3530092592592594E-2</v>
+      </c>
+      <c r="E650" s="4">
+        <v>1.4513888888888889E-2</v>
+      </c>
+      <c r="F650" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G650" s="5">
+        <v>1</v>
+      </c>
+      <c r="H650" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I650" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J650" s="48">
+        <v>1.1921296296296296E-3</v>
+      </c>
+      <c r="K650" s="1">
+        <v>1</v>
+      </c>
+      <c r="L650" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M650" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N650" s="1"/>
+    </row>
+    <row r="651" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A651" s="5">
+        <v>5</v>
+      </c>
+      <c r="B651" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C651" s="5">
+        <v>13</v>
+      </c>
+      <c r="D651" s="4">
+        <v>1.3530092592592594E-2</v>
+      </c>
+      <c r="E651" s="4">
+        <v>1.4513888888888889E-2</v>
+      </c>
+      <c r="F651" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G651" s="5">
+        <v>2</v>
+      </c>
+      <c r="H651" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I651" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J651" s="48">
+        <v>1.0763888888888889E-3</v>
+      </c>
+      <c r="K651" s="1">
+        <v>2</v>
+      </c>
+      <c r="L651" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M651" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N651" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="652" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A652" s="5">
+        <v>5</v>
+      </c>
+      <c r="B652" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C652" s="5">
+        <v>13</v>
+      </c>
+      <c r="D652" s="4">
+        <v>1.3530092592592594E-2</v>
+      </c>
+      <c r="E652" s="4">
+        <v>1.4513888888888889E-2</v>
+      </c>
+      <c r="F652" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G652" s="5">
+        <v>3</v>
+      </c>
+      <c r="H652" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I652" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J652" s="48">
+        <v>6.3657407407407402E-4</v>
+      </c>
+      <c r="K652" s="1">
+        <v>3</v>
+      </c>
+      <c r="L652" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M652" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N652" s="1"/>
+    </row>
+    <row r="653" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A653" s="5">
+        <v>5</v>
+      </c>
+      <c r="B653" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C653" s="5">
+        <v>13</v>
+      </c>
+      <c r="D653" s="4">
+        <v>1.3530092592592594E-2</v>
+      </c>
+      <c r="E653" s="4">
+        <v>1.4513888888888889E-2</v>
+      </c>
+      <c r="F653" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G653" s="5">
+        <v>4</v>
+      </c>
+      <c r="H653" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I653" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J653" s="48">
+        <v>4.5138888888888892E-4</v>
+      </c>
+      <c r="K653" s="1">
+        <v>5</v>
+      </c>
+      <c r="L653" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M653" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N653" s="1"/>
+    </row>
+    <row r="654" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A654" s="5">
+        <v>5</v>
+      </c>
+      <c r="B654" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C654" s="5">
+        <v>13</v>
+      </c>
+      <c r="D654" s="4">
+        <v>1.3530092592592594E-2</v>
+      </c>
+      <c r="E654" s="4">
+        <v>1.4513888888888889E-2</v>
+      </c>
+      <c r="F654" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G654" s="3">
+        <v>0</v>
+      </c>
+      <c r="H654" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I654" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J654" s="48">
+        <v>4.5138888888888892E-4</v>
+      </c>
+      <c r="K654" s="1">
+        <v>4</v>
+      </c>
+      <c r="L654" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M654" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N654" s="1"/>
+    </row>
+    <row r="655" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A655" s="5">
+        <v>5</v>
+      </c>
+      <c r="B655" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C655" s="5">
+        <v>14</v>
+      </c>
+      <c r="D655" s="4">
+        <v>1.4652777777777778E-2</v>
+      </c>
+      <c r="E655" s="4">
+        <v>1.5740740740740743E-2</v>
+      </c>
+      <c r="F655" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G655" s="5">
+        <v>1</v>
+      </c>
+      <c r="H655" s="3"/>
+      <c r="I655" s="1"/>
+      <c r="J655" s="48">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="K655" s="1"/>
+      <c r="L655" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M655" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N655" s="1"/>
+    </row>
+    <row r="656" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A656" s="5">
+        <v>5</v>
+      </c>
+      <c r="B656" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C656" s="5">
+        <v>14</v>
+      </c>
+      <c r="D656" s="4">
+        <v>1.4652777777777778E-2</v>
+      </c>
+      <c r="E656" s="4">
+        <v>1.5740740740740743E-2</v>
+      </c>
+      <c r="F656" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G656" s="5">
+        <v>2</v>
+      </c>
+      <c r="H656" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I656" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J656" s="48">
+        <v>1.0879629629629629E-3</v>
+      </c>
+      <c r="K656" s="1">
+        <v>2</v>
+      </c>
+      <c r="L656" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M656" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N656" s="1"/>
+    </row>
+    <row r="657" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A657" s="5">
+        <v>5</v>
+      </c>
+      <c r="B657" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C657" s="5">
+        <v>14</v>
+      </c>
+      <c r="D657" s="4">
+        <v>1.4652777777777778E-2</v>
+      </c>
+      <c r="E657" s="4">
+        <v>1.5740740740740743E-2</v>
+      </c>
+      <c r="F657" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G657" s="5">
+        <v>3</v>
+      </c>
+      <c r="H657" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I657" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J657" s="48">
+        <v>7.9861111111111105E-4</v>
+      </c>
+      <c r="K657" s="1">
+        <v>3</v>
+      </c>
+      <c r="L657" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M657" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N657" s="1"/>
+    </row>
+    <row r="658" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A658" s="5">
+        <v>5</v>
+      </c>
+      <c r="B658" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C658" s="5">
+        <v>14</v>
+      </c>
+      <c r="D658" s="4">
+        <v>1.4652777777777778E-2</v>
+      </c>
+      <c r="E658" s="4">
+        <v>1.5740740740740743E-2</v>
+      </c>
+      <c r="F658" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G658" s="5">
+        <v>4</v>
+      </c>
+      <c r="H658" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I658" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J658" s="48">
+        <v>1.0995370370370371E-3</v>
+      </c>
+      <c r="K658" s="1">
+        <v>1</v>
+      </c>
+      <c r="L658" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M658" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N658" s="1"/>
+    </row>
+    <row r="659" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A659" s="5">
+        <v>5</v>
+      </c>
+      <c r="B659" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C659" s="5">
+        <v>14</v>
+      </c>
+      <c r="D659" s="4">
+        <v>1.4652777777777778E-2</v>
+      </c>
+      <c r="E659" s="4">
+        <v>1.5740740740740743E-2</v>
+      </c>
+      <c r="F659" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G659" s="3">
+        <v>0</v>
+      </c>
+      <c r="H659" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I659" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J659" s="48">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="K659" s="1">
+        <v>4</v>
+      </c>
+      <c r="L659" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M659" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N659" s="1"/>
+    </row>
+    <row r="660" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A660" s="5">
+        <v>5</v>
+      </c>
+      <c r="B660" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C660" s="5">
+        <v>15</v>
+      </c>
+      <c r="D660" s="4">
+        <v>1.5833333333333335E-2</v>
+      </c>
+      <c r="E660" s="4">
+        <v>1.6597222222222222E-2</v>
+      </c>
+      <c r="F660" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G660" s="5">
+        <v>1</v>
+      </c>
+      <c r="H660" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I660" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J660" s="48">
+        <v>9.8379629629629642E-4</v>
+      </c>
+      <c r="K660" s="1">
+        <v>3</v>
+      </c>
+      <c r="L660" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M660" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N660" s="1"/>
+    </row>
+    <row r="661" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A661" s="5">
+        <v>5</v>
+      </c>
+      <c r="B661" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C661" s="5">
+        <v>15</v>
+      </c>
+      <c r="D661" s="4">
+        <v>1.5833333333333335E-2</v>
+      </c>
+      <c r="E661" s="4">
+        <v>1.6597222222222222E-2</v>
+      </c>
+      <c r="F661" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G661" s="5">
+        <v>2</v>
+      </c>
+      <c r="H661" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I661" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J661" s="48">
+        <v>1.2152777777777778E-3</v>
+      </c>
+      <c r="K661" s="1">
+        <v>1</v>
+      </c>
+      <c r="L661" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M661" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N661" s="1"/>
+    </row>
+    <row r="662" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A662" s="5">
+        <v>5</v>
+      </c>
+      <c r="B662" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C662" s="5">
+        <v>15</v>
+      </c>
+      <c r="D662" s="4">
+        <v>1.5833333333333335E-2</v>
+      </c>
+      <c r="E662" s="4">
+        <v>1.6597222222222222E-2</v>
+      </c>
+      <c r="F662" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G662" s="5">
+        <v>3</v>
+      </c>
+      <c r="H662" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I662" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J662" s="48">
+        <v>6.7129629629629625E-4</v>
+      </c>
+      <c r="K662" s="1">
+        <v>4</v>
+      </c>
+      <c r="L662" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M662" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N662" s="1"/>
+    </row>
+    <row r="663" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A663" s="5">
+        <v>5</v>
+      </c>
+      <c r="B663" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C663" s="5">
+        <v>15</v>
+      </c>
+      <c r="D663" s="4">
+        <v>1.5833333333333335E-2</v>
+      </c>
+      <c r="E663" s="4">
+        <v>1.6597222222222222E-2</v>
+      </c>
+      <c r="F663" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G663" s="5">
+        <v>4</v>
+      </c>
+      <c r="H663" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I663" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J663" s="48">
+        <v>1.0648148148148147E-3</v>
+      </c>
+      <c r="K663" s="1">
+        <v>2</v>
+      </c>
+      <c r="L663" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M663" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N663" s="1"/>
+    </row>
+    <row r="664" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A664" s="5">
+        <v>5</v>
+      </c>
+      <c r="B664" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C664" s="5">
+        <v>15</v>
+      </c>
+      <c r="D664" s="4">
+        <v>1.5833333333333335E-2</v>
+      </c>
+      <c r="E664" s="4">
+        <v>1.6597222222222222E-2</v>
+      </c>
+      <c r="F664" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G664" s="3">
+        <v>0</v>
+      </c>
+      <c r="H664" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I664" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J664" s="48">
+        <v>6.7129629629629625E-4</v>
+      </c>
+      <c r="K664" s="1">
+        <v>5</v>
+      </c>
+      <c r="L664" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M664" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N664" s="1"/>
+    </row>
+    <row r="665" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A665" s="5">
+        <v>5</v>
+      </c>
+      <c r="B665" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C665" s="5">
+        <v>16</v>
+      </c>
+      <c r="D665" s="4">
+        <v>1.6736111111111111E-2</v>
+      </c>
+      <c r="E665" s="4">
+        <v>1.758101851851852E-2</v>
+      </c>
+      <c r="F665" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G665" s="5">
+        <v>1</v>
+      </c>
+      <c r="H665" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I665" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J665" s="48">
+        <v>7.9861111111111105E-4</v>
+      </c>
+      <c r="K665" s="1">
+        <v>1</v>
+      </c>
+      <c r="L665" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M665" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N665" s="1"/>
+    </row>
+    <row r="666" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A666" s="5">
+        <v>5</v>
+      </c>
+      <c r="B666" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C666" s="5">
+        <v>16</v>
+      </c>
+      <c r="D666" s="4">
+        <v>1.6736111111111111E-2</v>
+      </c>
+      <c r="E666" s="4">
+        <v>1.758101851851852E-2</v>
+      </c>
+      <c r="F666" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G666" s="5">
+        <v>2</v>
+      </c>
+      <c r="H666" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I666" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J666" s="48">
+        <v>6.8287037037037025E-4</v>
+      </c>
+      <c r="K666" s="1">
+        <v>2</v>
+      </c>
+      <c r="L666" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M666" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N666" s="1"/>
+    </row>
+    <row r="667" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A667" s="5">
+        <v>5</v>
+      </c>
+      <c r="B667" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C667" s="5">
+        <v>16</v>
+      </c>
+      <c r="D667" s="4">
+        <v>1.6736111111111111E-2</v>
+      </c>
+      <c r="E667" s="4">
+        <v>1.758101851851852E-2</v>
+      </c>
+      <c r="F667" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G667" s="5">
+        <v>3</v>
+      </c>
+      <c r="H667" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I667" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J667" s="48">
+        <v>6.018518518518519E-4</v>
+      </c>
+      <c r="K667" s="1">
+        <v>3</v>
+      </c>
+      <c r="L667" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M667" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N667" s="1"/>
+    </row>
+    <row r="668" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A668" s="5">
+        <v>5</v>
+      </c>
+      <c r="B668" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C668" s="5">
+        <v>16</v>
+      </c>
+      <c r="D668" s="4">
+        <v>1.6736111111111111E-2</v>
+      </c>
+      <c r="E668" s="4">
+        <v>1.758101851851852E-2</v>
+      </c>
+      <c r="F668" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G668" s="5">
+        <v>4</v>
+      </c>
+      <c r="H668" s="3"/>
+      <c r="I668" s="1"/>
+      <c r="J668" s="48">
+        <v>6.018518518518519E-4</v>
+      </c>
+      <c r="K668" s="1"/>
+      <c r="L668" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M668" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N668" s="1"/>
+    </row>
+    <row r="669" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A669" s="5">
+        <v>5</v>
+      </c>
+      <c r="B669" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C669" s="5">
+        <v>16</v>
+      </c>
+      <c r="D669" s="4">
+        <v>1.6736111111111111E-2</v>
+      </c>
+      <c r="E669" s="4">
+        <v>1.758101851851852E-2</v>
+      </c>
+      <c r="F669" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G669" s="3">
+        <v>0</v>
+      </c>
+      <c r="H669" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I669" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J669" s="48">
+        <v>6.018518518518519E-4</v>
+      </c>
+      <c r="K669" s="1">
+        <v>4</v>
+      </c>
+      <c r="L669" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M669" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N669" s="1"/>
+    </row>
+    <row r="670" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J670" s="47"/>
     </row>
   </sheetData>
   <sortState ref="A2:N409">
@@ -25371,8 +28689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25380,7 +28698,7 @@
     <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.21875" customWidth="1"/>
     <col min="3" max="5" width="19.88671875" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -25392,53 +28710,59 @@
       <c r="D1" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="34" t="s">
         <v>90</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="31" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="32"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="17">
         <v>8</v>
       </c>
       <c r="D2" s="24">
         <v>8</v>
       </c>
-      <c r="E2" s="40">
-        <v>8</v>
-      </c>
-      <c r="F2" s="37">
+      <c r="E2" s="35">
+        <v>8</v>
+      </c>
+      <c r="F2" s="32">
         <v>9</v>
       </c>
+      <c r="G2" s="46">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="17" t="s">
         <v>48</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="32" t="s">
         <v>107</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.3">
@@ -25446,24 +28770,27 @@
       <c r="B4" s="12"/>
       <c r="C4" s="18"/>
       <c r="D4" s="25"/>
-      <c r="E4" s="41"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="17">
         <v>5</v>
       </c>
       <c r="D5" s="24">
         <v>5</v>
       </c>
-      <c r="E5" s="40">
-        <v>5</v>
-      </c>
-      <c r="F5" s="37">
+      <c r="E5" s="35">
+        <v>5</v>
+      </c>
+      <c r="F5" s="32">
+        <v>5</v>
+      </c>
+      <c r="G5" s="46">
         <v>5</v>
       </c>
     </row>
@@ -25472,271 +28799,313 @@
       <c r="B6" s="12"/>
       <c r="C6" s="18"/>
       <c r="D6" s="25"/>
-      <c r="E6" s="41"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="19" t="s">
         <v>74</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="40" t="s">
         <v>108</v>
       </c>
+      <c r="G7" s="37" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="17" t="s">
         <v>72</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="32" t="s">
         <v>72</v>
       </c>
+      <c r="G8" s="35" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="17" t="s">
         <v>72</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="32" t="s">
         <v>72</v>
       </c>
+      <c r="G9" s="35" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="32"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="32" t="s">
         <v>56</v>
       </c>
+      <c r="G10" s="35" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="32" t="s">
         <v>56</v>
       </c>
+      <c r="G11" s="35" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="32"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="17" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="32" t="s">
         <v>68</v>
       </c>
+      <c r="G12" s="35" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="32"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="17">
         <v>9</v>
       </c>
       <c r="D13" s="24">
         <v>9</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="35">
         <v>9</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="32">
         <v>32</v>
       </c>
+      <c r="G13" s="35">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="32"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="32" t="s">
         <v>65</v>
       </c>
+      <c r="G14" s="35" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="32"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="17" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="32" t="s">
         <v>63</v>
       </c>
+      <c r="G15" s="35" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="32"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="17" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="32" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
+      <c r="G16" s="35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="32"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="17" t="s">
         <v>61</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="37" t="s">
+      <c r="F17" s="32" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="31" t="s">
+      <c r="G17" s="35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="32"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="17" t="s">
         <v>75</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="35" t="s">
         <v>75</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="12"/>
       <c r="C19" s="18"/>
       <c r="D19" s="25"/>
-      <c r="E19" s="41"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="32"/>
+      <c r="B20" s="45"/>
       <c r="C20" s="17" t="s">
         <v>77</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="F20" s="37" t="s">
+      <c r="F20" s="32" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
+      <c r="G20" s="35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="32"/>
+      <c r="B21" s="45"/>
       <c r="C21" s="17" t="s">
         <v>77</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="37" t="s">
+      <c r="F21" s="32" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="33" t="s">
+      <c r="G21" s="35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="41" t="s">
         <v>79</v>
       </c>
       <c r="B22" s="13" t="s">
@@ -25748,15 +29117,18 @@
       <c r="D22" s="27">
         <v>10</v>
       </c>
-      <c r="E22" s="43">
+      <c r="E22" s="38">
         <v>10</v>
       </c>
       <c r="F22" s="5">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
+      <c r="G22" s="38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="42"/>
       <c r="B23" s="13" t="s">
         <v>81</v>
       </c>
@@ -25766,15 +29138,18 @@
       <c r="D23" s="27">
         <v>8</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="38">
         <v>8</v>
       </c>
       <c r="F23" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
+      <c r="G23" s="38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="42"/>
       <c r="B24" s="13" t="s">
         <v>82</v>
       </c>
@@ -25784,15 +29159,18 @@
       <c r="D24" s="27">
         <v>6</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="38">
         <v>6</v>
       </c>
       <c r="F24" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="34"/>
+      <c r="G24" s="38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="42"/>
       <c r="B25" s="13" t="s">
         <v>83</v>
       </c>
@@ -25802,15 +29180,18 @@
       <c r="D25" s="27">
         <v>2</v>
       </c>
-      <c r="E25" s="43">
+      <c r="E25" s="38">
         <v>2</v>
       </c>
       <c r="F25" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="34"/>
+      <c r="G25" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="42"/>
       <c r="B26" s="13" t="s">
         <v>46</v>
       </c>
@@ -25820,15 +29201,18 @@
       <c r="D26" s="27">
         <v>4</v>
       </c>
-      <c r="E26" s="43">
+      <c r="E26" s="38">
         <v>4</v>
       </c>
       <c r="F26" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
+      <c r="G26" s="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="42"/>
       <c r="B27" s="13" t="s">
         <v>84</v>
       </c>
@@ -25838,15 +29222,18 @@
       <c r="D27" s="27">
         <v>2</v>
       </c>
-      <c r="E27" s="43">
+      <c r="E27" s="38">
         <v>2</v>
       </c>
       <c r="F27" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="34"/>
+      <c r="G27" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="42"/>
       <c r="B28" s="13" t="s">
         <v>49</v>
       </c>
@@ -25856,15 +29243,18 @@
       <c r="D28" s="27">
         <v>2</v>
       </c>
-      <c r="E28" s="43">
+      <c r="E28" s="38">
         <v>2</v>
       </c>
       <c r="F28" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
+      <c r="G28" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="42"/>
       <c r="B29" s="13" t="s">
         <v>45</v>
       </c>
@@ -25874,15 +29264,18 @@
       <c r="D29" s="27">
         <v>2</v>
       </c>
-      <c r="E29" s="43">
+      <c r="E29" s="38">
         <v>2</v>
       </c>
       <c r="F29" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="34"/>
+      <c r="G29" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="42"/>
       <c r="B30" s="13" t="s">
         <v>88</v>
       </c>
@@ -25892,15 +29285,18 @@
       <c r="D30" s="27">
         <v>2</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E30" s="38">
         <v>2</v>
       </c>
       <c r="F30" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="34"/>
+      <c r="G30" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="42"/>
       <c r="B31" s="13" t="s">
         <v>85</v>
       </c>
@@ -25910,15 +29306,18 @@
       <c r="D31" s="27">
         <v>1</v>
       </c>
-      <c r="E31" s="43">
+      <c r="E31" s="38">
         <v>1</v>
       </c>
       <c r="F31" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="34"/>
+      <c r="G31" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="42"/>
       <c r="B32" s="13" t="s">
         <v>86</v>
       </c>
@@ -25928,15 +29327,18 @@
       <c r="D32" s="27">
         <v>1</v>
       </c>
-      <c r="E32" s="43">
+      <c r="E32" s="38">
         <v>1</v>
       </c>
       <c r="F32" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="35"/>
+      <c r="G32" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="43"/>
       <c r="B33" s="13" t="s">
         <v>87</v>
       </c>
@@ -25946,23 +29348,26 @@
       <c r="D33" s="27">
         <v>1</v>
       </c>
-      <c r="E33" s="43">
+      <c r="E33" s="38">
         <v>1</v>
       </c>
       <c r="F33" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="3" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="12"/>
       <c r="C34" s="18"/>
       <c r="D34" s="25"/>
-      <c r="E34" s="41"/>
+      <c r="E34" s="36"/>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="33" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="41" t="s">
         <v>93</v>
       </c>
       <c r="B35" s="14" t="s">
@@ -25974,15 +29379,18 @@
       <c r="D35" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="E35" s="44" t="s">
+      <c r="E35" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="F35" s="32" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="34"/>
+      <c r="G35" s="46" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="42"/>
       <c r="B36" s="14" t="s">
         <v>0</v>
       </c>
@@ -25992,15 +29400,18 @@
       <c r="D36" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="40" t="s">
+      <c r="E36" s="35" t="s">
         <v>100</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="34"/>
+      <c r="G36" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="42"/>
       <c r="B37" s="14" t="s">
         <v>9</v>
       </c>
@@ -26010,15 +29421,15 @@
       <c r="D37" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="40" t="s">
+      <c r="E37" s="35" t="s">
         <v>99</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="34"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="42"/>
       <c r="B38" s="14" t="s">
         <v>5</v>
       </c>
@@ -26028,15 +29439,18 @@
       <c r="D38" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="40" t="s">
+      <c r="E38" s="35" t="s">
         <v>94</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="34"/>
+      <c r="G38" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="42"/>
       <c r="B39" s="14" t="s">
         <v>11</v>
       </c>
@@ -26046,15 +29460,15 @@
       <c r="D39" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="40" t="s">
+      <c r="E39" s="35" t="s">
         <v>98</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="34"/>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="42"/>
       <c r="B40" s="14" t="s">
         <v>7</v>
       </c>
@@ -26064,15 +29478,18 @@
       <c r="D40" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="E40" s="40" t="s">
+      <c r="E40" s="35" t="s">
         <v>95</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="34"/>
+      <c r="G40" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="42"/>
       <c r="B41" s="14" t="s">
         <v>10</v>
       </c>
@@ -26082,15 +29499,18 @@
       <c r="D41" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="E41" s="40" t="s">
+      <c r="E41" s="35" t="s">
         <v>96</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="34"/>
+      <c r="G41" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="42"/>
       <c r="B42" s="14" t="s">
         <v>6</v>
       </c>
@@ -26100,15 +29520,15 @@
       <c r="D42" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="E42" s="40" t="s">
+      <c r="E42" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F42" s="37" t="s">
+      <c r="F42" s="32" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="35"/>
+    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="43"/>
       <c r="B43" s="14" t="s">
         <v>34</v>
       </c>
@@ -26118,21 +29538,21 @@
       <c r="D43" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="40" t="s">
+      <c r="E43" s="35" t="s">
         <v>103</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="15"/>
       <c r="D44" s="29"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="8"/>
       <c r="B45" s="9"/>
       <c r="C45" s="10"/>
@@ -26141,11 +29561,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A35:A43"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A22:A33"/>
     <mergeCell ref="A14:B14"/>
@@ -26160,6 +29575,11 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A35:A43"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
